--- a/data-raw/diccionario_enc_demo.xlsx
+++ b/data-raw/diccionario_enc_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivans\GitHub\encuestar\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\al-jo\Git\encuestar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4B890-566B-4931-894A-DB221050A1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A751A54-AEF1-4D02-B13A-9B4B768C6EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="188">
   <si>
     <t>bloque</t>
   </si>
@@ -562,6 +562,36 @@
   </si>
   <si>
     <t>Mi casilla no era segura_Desconocía mi casilla_Desconocimiento de candidatos_No tenía o perdí mi INE_Trabajé o estuve ocupado_Desinterés por la política_Percepción de que mi voto no importa_Estuve fuera de la ciudad_Mi casilla no se colocó o fue clausurada_Cuestiones de clima: calor_Otros aspectos_Ns/Nc</t>
+  </si>
+  <si>
+    <t>¿Usted conoce o había escuchado hablar de …?</t>
+  </si>
+  <si>
+    <t>conoce_pm_lia</t>
+  </si>
+  <si>
+    <t>Lía Limón García</t>
+  </si>
+  <si>
+    <t>conoce_pm_javier</t>
+  </si>
+  <si>
+    <t>Javier López Casarín</t>
+  </si>
+  <si>
+    <t>¿Con qué partido político relaciona a (…) ?</t>
+  </si>
+  <si>
+    <t>partido_pm_lia</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD_PT_Partido Verde (PVEM)_Movimiento Ciudadano (MC)_MORENA_Otro_Ns/Nc</t>
+  </si>
+  <si>
+    <t>partido_pm_javier</t>
+  </si>
+  <si>
+    <t>Bloque 7: Alcaldía Álvaro Obregón</t>
   </si>
 </sst>
 </file>
@@ -626,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,24 +918,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB912"/>
+  <dimension ref="A1:AB907"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.109375" customWidth="1"/>
-    <col min="2" max="2" width="81.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="209.109375" customWidth="1"/>
-    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="28" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="209.140625" customWidth="1"/>
+    <col min="9" max="9" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +983,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1002,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -988,7 +1021,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1040,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1080,7 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1101,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1120,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1160,7 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1181,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1225,7 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1274,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1319,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1338,7 +1371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1390,7 +1423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +1481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +1510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -1535,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -1616,7 +1649,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
@@ -1639,7 +1672,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +1701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -1697,7 +1730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -1726,7 +1759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>72</v>
       </c>
@@ -1755,7 +1788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>72</v>
       </c>
@@ -1784,7 +1817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>72</v>
       </c>
@@ -1813,7 +1846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -1839,7 +1872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>168</v>
       </c>
@@ -1865,7 +1898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
@@ -1891,7 +1924,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>167</v>
       </c>
@@ -1918,7 +1951,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>89</v>
       </c>
@@ -1944,7 +1977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
@@ -1970,7 +2003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>89</v>
       </c>
@@ -1997,7 +2030,7 @@
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>89</v>
       </c>
@@ -2024,7 +2057,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>89</v>
       </c>
@@ -2051,7 +2084,7 @@
       </c>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
@@ -2080,7 +2113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>89</v>
       </c>
@@ -2109,7 +2142,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
@@ -2138,7 +2171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>89</v>
       </c>
@@ -2167,7 +2200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>113</v>
       </c>
@@ -2196,7 +2229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>113</v>
       </c>
@@ -2225,7 +2258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
@@ -2254,7 +2287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>122</v>
       </c>
@@ -2281,7 +2314,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>122</v>
       </c>
@@ -2308,7 +2341,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>122</v>
       </c>
@@ -2335,7 +2368,7 @@
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>132</v>
       </c>
@@ -2362,7 +2395,7 @@
       </c>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>132</v>
       </c>
@@ -2389,7 +2422,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>132</v>
       </c>
@@ -2416,7 +2449,7 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>132</v>
       </c>
@@ -2443,7 +2476,7 @@
       </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -2470,7 +2503,7 @@
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>132</v>
       </c>
@@ -2497,43 +2530,91 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="H60" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2542,7 +2623,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2551,7 +2632,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2560,7 +2641,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2569,7 +2650,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2578,7 +2659,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2587,7 +2668,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2596,7 +2677,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2605,7 +2686,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2614,7 +2695,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2623,7 +2704,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2632,7 +2713,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2641,7 +2722,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2650,7 +2731,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2659,7 +2740,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2668,7 +2749,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2677,7 +2758,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2686,7 +2767,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2695,7 +2776,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2704,7 +2785,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2713,7 +2794,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2722,7 +2803,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2731,7 +2812,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2740,7 +2821,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2749,7 +2830,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2758,7 +2839,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2767,7 +2848,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2776,7 +2857,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2785,7 +2866,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2794,7 +2875,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2803,7 +2884,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -2812,7 +2893,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2821,7 +2902,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2830,7 +2911,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2839,7 +2920,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -2848,7 +2929,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2857,7 +2938,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2866,7 +2947,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -2875,7 +2956,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2884,7 +2965,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="4"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2893,7 +2974,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2902,7 +2983,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2911,7 +2992,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="4"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2920,7 +3001,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2929,7 +3010,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -2938,7 +3019,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2947,7 +3028,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="4"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2956,7 +3037,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2965,7 +3046,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="4"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2974,7 +3055,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -2983,7 +3064,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2992,7 +3073,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3001,7 +3082,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3010,7 +3091,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3019,7 +3100,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3028,7 +3109,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3037,7 +3118,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3046,7 +3127,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -3055,7 +3136,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="4"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -3064,7 +3145,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="4"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -3073,7 +3154,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="4"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -3082,7 +3163,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="4"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -3091,7 +3172,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="4"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3100,7 +3181,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="4"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3109,7 +3190,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="4"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3118,7 +3199,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="4"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3127,7 +3208,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="4"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3136,7 +3217,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="4"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3145,7 +3226,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="4"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -3154,7 +3235,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="4"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3163,7 +3244,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="4"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3172,7 +3253,7 @@
       <c r="H132" s="5"/>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="4"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3181,7 +3262,7 @@
       <c r="H133" s="5"/>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="4"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3190,7 +3271,7 @@
       <c r="H134" s="5"/>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="4"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -3199,7 +3280,7 @@
       <c r="H135" s="5"/>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="4"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -3208,7 +3289,7 @@
       <c r="H136" s="5"/>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="4"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -3217,7 +3298,7 @@
       <c r="H137" s="5"/>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3226,7 +3307,7 @@
       <c r="H138" s="5"/>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3235,7 +3316,7 @@
       <c r="H139" s="5"/>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="4"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -3244,7 +3325,7 @@
       <c r="H140" s="5"/>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="4"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3253,7 +3334,7 @@
       <c r="H141" s="5"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3262,7 +3343,7 @@
       <c r="H142" s="5"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="4"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -3271,7 +3352,7 @@
       <c r="H143" s="5"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="4"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3280,7 +3361,7 @@
       <c r="H144" s="5"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="4"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3289,7 +3370,7 @@
       <c r="H145" s="5"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="4"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -3298,7 +3379,7 @@
       <c r="H146" s="5"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="4"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3307,7 +3388,7 @@
       <c r="H147" s="5"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="4"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3316,7 +3397,7 @@
       <c r="H148" s="5"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="4"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -3325,7 +3406,7 @@
       <c r="H149" s="5"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="4"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3334,7 +3415,7 @@
       <c r="H150" s="5"/>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3343,7 +3424,7 @@
       <c r="H151" s="5"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -3352,7 +3433,7 @@
       <c r="H152" s="5"/>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -3361,7 +3442,7 @@
       <c r="H153" s="5"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -3370,7 +3451,7 @@
       <c r="H154" s="5"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -3379,7 +3460,7 @@
       <c r="H155" s="5"/>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -3388,7 +3469,7 @@
       <c r="H156" s="5"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3397,7 +3478,7 @@
       <c r="H157" s="5"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -3406,7 +3487,7 @@
       <c r="H158" s="5"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -3415,7 +3496,7 @@
       <c r="H159" s="5"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="4"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -3424,7 +3505,7 @@
       <c r="H160" s="5"/>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="4"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -3433,7 +3514,7 @@
       <c r="H161" s="5"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="4"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -3442,7 +3523,7 @@
       <c r="H162" s="5"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -3451,7 +3532,7 @@
       <c r="H163" s="5"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="4"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -3460,7 +3541,7 @@
       <c r="H164" s="5"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -3469,7 +3550,7 @@
       <c r="H165" s="5"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="4"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -3478,7 +3559,7 @@
       <c r="H166" s="5"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="4"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -3487,7 +3568,7 @@
       <c r="H167" s="5"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="4"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -3496,7 +3577,7 @@
       <c r="H168" s="5"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="4"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -3505,7 +3586,7 @@
       <c r="H169" s="5"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="4"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -3514,7 +3595,7 @@
       <c r="H170" s="5"/>
       <c r="I170" s="4"/>
     </row>
-    <row r="171" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -3523,7 +3604,7 @@
       <c r="H171" s="5"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="4"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -3532,7 +3613,7 @@
       <c r="H172" s="5"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="4"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -3541,7 +3622,7 @@
       <c r="H173" s="5"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -3550,7 +3631,7 @@
       <c r="H174" s="5"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -3559,7 +3640,7 @@
       <c r="H175" s="5"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -3568,7 +3649,7 @@
       <c r="H176" s="5"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="4"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3577,7 +3658,7 @@
       <c r="H177" s="5"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="4"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -3586,7 +3667,7 @@
       <c r="H178" s="5"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="4"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -3595,7 +3676,7 @@
       <c r="H179" s="5"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -3604,7 +3685,7 @@
       <c r="H180" s="5"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="4"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -3613,7 +3694,7 @@
       <c r="H181" s="5"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -3622,7 +3703,7 @@
       <c r="H182" s="5"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -3631,7 +3712,7 @@
       <c r="H183" s="5"/>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="4"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -3640,7 +3721,7 @@
       <c r="H184" s="5"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -3649,7 +3730,7 @@
       <c r="H185" s="5"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="4"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -3658,7 +3739,7 @@
       <c r="H186" s="5"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="4"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3667,7 +3748,7 @@
       <c r="H187" s="5"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="4"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3676,7 +3757,7 @@
       <c r="H188" s="5"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="4"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3685,7 +3766,7 @@
       <c r="H189" s="5"/>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="4"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -3694,7 +3775,7 @@
       <c r="H190" s="5"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="4"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -3703,7 +3784,7 @@
       <c r="H191" s="5"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="4"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -3712,7 +3793,7 @@
       <c r="H192" s="5"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="4"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -3721,7 +3802,7 @@
       <c r="H193" s="5"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="4"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -3730,7 +3811,7 @@
       <c r="H194" s="5"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="4"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -3739,7 +3820,7 @@
       <c r="H195" s="5"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="4"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -3748,7 +3829,7 @@
       <c r="H196" s="5"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="4"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -3757,7 +3838,7 @@
       <c r="H197" s="5"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="4"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -3766,7 +3847,7 @@
       <c r="H198" s="5"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="4"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -3775,7 +3856,7 @@
       <c r="H199" s="5"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="4"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -3784,7 +3865,7 @@
       <c r="H200" s="5"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="4"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -3793,7 +3874,7 @@
       <c r="H201" s="5"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="4"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -3802,7 +3883,7 @@
       <c r="H202" s="5"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="4"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -3811,7 +3892,7 @@
       <c r="H203" s="5"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="4"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -3820,7 +3901,7 @@
       <c r="H204" s="5"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="4"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -3829,7 +3910,7 @@
       <c r="H205" s="5"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="4"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -3838,7 +3919,7 @@
       <c r="H206" s="5"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -3847,7 +3928,7 @@
       <c r="H207" s="5"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="4"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -3856,7 +3937,7 @@
       <c r="H208" s="5"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="4"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -3865,7 +3946,7 @@
       <c r="H209" s="5"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="4"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -3874,7 +3955,7 @@
       <c r="H210" s="5"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="4"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -3883,7 +3964,7 @@
       <c r="H211" s="5"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="4"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -3892,7 +3973,7 @@
       <c r="H212" s="5"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="4"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -3901,7 +3982,7 @@
       <c r="H213" s="5"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -3910,7 +3991,7 @@
       <c r="H214" s="5"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -3919,7 +4000,7 @@
       <c r="H215" s="5"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="4"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -3928,7 +4009,7 @@
       <c r="H216" s="5"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="4"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -3937,7 +4018,7 @@
       <c r="H217" s="5"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="4"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -3946,7 +4027,7 @@
       <c r="H218" s="5"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="4"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -3955,7 +4036,7 @@
       <c r="H219" s="5"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="4"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -3964,7 +4045,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="4"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -3973,7 +4054,7 @@
       <c r="H221" s="5"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="4"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -3982,7 +4063,7 @@
       <c r="H222" s="5"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="4"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -3991,7 +4072,7 @@
       <c r="H223" s="5"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="4"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -4000,7 +4081,7 @@
       <c r="H224" s="5"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="4"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -4009,7 +4090,7 @@
       <c r="H225" s="5"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="4"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -4018,7 +4099,7 @@
       <c r="H226" s="5"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="4"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -4027,7 +4108,7 @@
       <c r="H227" s="5"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="4"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -4036,7 +4117,7 @@
       <c r="H228" s="5"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="4"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -4045,7 +4126,7 @@
       <c r="H229" s="5"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="4"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -4054,7 +4135,7 @@
       <c r="H230" s="5"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="4"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -4063,7 +4144,7 @@
       <c r="H231" s="5"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="4"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -4072,7 +4153,7 @@
       <c r="H232" s="5"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="4"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -4081,7 +4162,7 @@
       <c r="H233" s="5"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="4"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -4090,7 +4171,7 @@
       <c r="H234" s="5"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="4"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -4099,7 +4180,7 @@
       <c r="H235" s="5"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="4"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -4108,7 +4189,7 @@
       <c r="H236" s="5"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="4"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -4117,7 +4198,7 @@
       <c r="H237" s="5"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="4"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -4126,7 +4207,7 @@
       <c r="H238" s="5"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="4"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -4135,7 +4216,7 @@
       <c r="H239" s="5"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="4"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -4144,7 +4225,7 @@
       <c r="H240" s="5"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="4"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -4153,7 +4234,7 @@
       <c r="H241" s="5"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="4"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -4162,7 +4243,7 @@
       <c r="H242" s="5"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="4"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -4171,7 +4252,7 @@
       <c r="H243" s="5"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="4"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -4180,7 +4261,7 @@
       <c r="H244" s="5"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="4"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -4189,7 +4270,7 @@
       <c r="H245" s="5"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="4"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -4198,7 +4279,7 @@
       <c r="H246" s="5"/>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="4"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -4207,7 +4288,7 @@
       <c r="H247" s="5"/>
       <c r="I247" s="4"/>
     </row>
-    <row r="248" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="4"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -4216,7 +4297,7 @@
       <c r="H248" s="5"/>
       <c r="I248" s="4"/>
     </row>
-    <row r="249" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="4"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -4225,7 +4306,7 @@
       <c r="H249" s="5"/>
       <c r="I249" s="4"/>
     </row>
-    <row r="250" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="4"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -4234,7 +4315,7 @@
       <c r="H250" s="5"/>
       <c r="I250" s="4"/>
     </row>
-    <row r="251" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="4"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -4243,7 +4324,7 @@
       <c r="H251" s="5"/>
       <c r="I251" s="4"/>
     </row>
-    <row r="252" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="4"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -4252,7 +4333,7 @@
       <c r="H252" s="5"/>
       <c r="I252" s="4"/>
     </row>
-    <row r="253" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="4"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -4261,7 +4342,7 @@
       <c r="H253" s="5"/>
       <c r="I253" s="4"/>
     </row>
-    <row r="254" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="4"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -4270,7 +4351,7 @@
       <c r="H254" s="5"/>
       <c r="I254" s="4"/>
     </row>
-    <row r="255" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="4"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -4279,7 +4360,7 @@
       <c r="H255" s="5"/>
       <c r="I255" s="4"/>
     </row>
-    <row r="256" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="4"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -4288,7 +4369,7 @@
       <c r="H256" s="5"/>
       <c r="I256" s="4"/>
     </row>
-    <row r="257" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="4"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -4297,7 +4378,7 @@
       <c r="H257" s="5"/>
       <c r="I257" s="4"/>
     </row>
-    <row r="258" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="4"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -4306,7 +4387,7 @@
       <c r="H258" s="5"/>
       <c r="I258" s="4"/>
     </row>
-    <row r="259" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="4"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -4315,7 +4396,7 @@
       <c r="H259" s="5"/>
       <c r="I259" s="4"/>
     </row>
-    <row r="260" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="4"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -4324,7 +4405,7 @@
       <c r="H260" s="5"/>
       <c r="I260" s="4"/>
     </row>
-    <row r="261" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="4"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -4333,7 +4414,7 @@
       <c r="H261" s="5"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="4"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -4342,7 +4423,7 @@
       <c r="H262" s="5"/>
       <c r="I262" s="4"/>
     </row>
-    <row r="263" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="4"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -4351,7 +4432,7 @@
       <c r="H263" s="5"/>
       <c r="I263" s="4"/>
     </row>
-    <row r="264" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="4"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -4360,7 +4441,7 @@
       <c r="H264" s="5"/>
       <c r="I264" s="4"/>
     </row>
-    <row r="265" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="4"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -4369,7 +4450,7 @@
       <c r="H265" s="5"/>
       <c r="I265" s="4"/>
     </row>
-    <row r="266" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="4"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -4378,7 +4459,7 @@
       <c r="H266" s="5"/>
       <c r="I266" s="4"/>
     </row>
-    <row r="267" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="4"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -4387,7 +4468,7 @@
       <c r="H267" s="5"/>
       <c r="I267" s="4"/>
     </row>
-    <row r="268" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="4"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -4396,7 +4477,7 @@
       <c r="H268" s="5"/>
       <c r="I268" s="4"/>
     </row>
-    <row r="269" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="4"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -4405,7 +4486,7 @@
       <c r="H269" s="5"/>
       <c r="I269" s="4"/>
     </row>
-    <row r="270" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="4"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -4414,7 +4495,7 @@
       <c r="H270" s="5"/>
       <c r="I270" s="4"/>
     </row>
-    <row r="271" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="4"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -4423,7 +4504,7 @@
       <c r="H271" s="5"/>
       <c r="I271" s="4"/>
     </row>
-    <row r="272" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="4"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -4432,7 +4513,7 @@
       <c r="H272" s="5"/>
       <c r="I272" s="4"/>
     </row>
-    <row r="273" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="4"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -4441,7 +4522,7 @@
       <c r="H273" s="5"/>
       <c r="I273" s="4"/>
     </row>
-    <row r="274" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="4"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -4450,7 +4531,7 @@
       <c r="H274" s="5"/>
       <c r="I274" s="4"/>
     </row>
-    <row r="275" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="4"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -4459,7 +4540,7 @@
       <c r="H275" s="5"/>
       <c r="I275" s="4"/>
     </row>
-    <row r="276" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="4"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -4468,7 +4549,7 @@
       <c r="H276" s="5"/>
       <c r="I276" s="4"/>
     </row>
-    <row r="277" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="4"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -4477,7 +4558,7 @@
       <c r="H277" s="5"/>
       <c r="I277" s="4"/>
     </row>
-    <row r="278" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="4"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -4486,7 +4567,7 @@
       <c r="H278" s="5"/>
       <c r="I278" s="4"/>
     </row>
-    <row r="279" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="4"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -4495,7 +4576,7 @@
       <c r="H279" s="5"/>
       <c r="I279" s="4"/>
     </row>
-    <row r="280" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="4"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -4504,7 +4585,7 @@
       <c r="H280" s="5"/>
       <c r="I280" s="4"/>
     </row>
-    <row r="281" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="4"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -4513,7 +4594,7 @@
       <c r="H281" s="5"/>
       <c r="I281" s="4"/>
     </row>
-    <row r="282" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="4"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -4522,7 +4603,7 @@
       <c r="H282" s="5"/>
       <c r="I282" s="4"/>
     </row>
-    <row r="283" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="4"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -4531,7 +4612,7 @@
       <c r="H283" s="5"/>
       <c r="I283" s="4"/>
     </row>
-    <row r="284" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="4"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -4540,7 +4621,7 @@
       <c r="H284" s="5"/>
       <c r="I284" s="4"/>
     </row>
-    <row r="285" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="4"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -4549,7 +4630,7 @@
       <c r="H285" s="5"/>
       <c r="I285" s="4"/>
     </row>
-    <row r="286" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="4"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -4558,7 +4639,7 @@
       <c r="H286" s="5"/>
       <c r="I286" s="4"/>
     </row>
-    <row r="287" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="4"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -4567,7 +4648,7 @@
       <c r="H287" s="5"/>
       <c r="I287" s="4"/>
     </row>
-    <row r="288" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="4"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -4576,7 +4657,7 @@
       <c r="H288" s="5"/>
       <c r="I288" s="4"/>
     </row>
-    <row r="289" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="4"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -4585,7 +4666,7 @@
       <c r="H289" s="5"/>
       <c r="I289" s="4"/>
     </row>
-    <row r="290" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="4"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -4594,7 +4675,7 @@
       <c r="H290" s="5"/>
       <c r="I290" s="4"/>
     </row>
-    <row r="291" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="4"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -4603,7 +4684,7 @@
       <c r="H291" s="5"/>
       <c r="I291" s="4"/>
     </row>
-    <row r="292" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -4612,7 +4693,7 @@
       <c r="H292" s="5"/>
       <c r="I292" s="4"/>
     </row>
-    <row r="293" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="4"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -4621,7 +4702,7 @@
       <c r="H293" s="5"/>
       <c r="I293" s="4"/>
     </row>
-    <row r="294" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="4"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -4630,7 +4711,7 @@
       <c r="H294" s="5"/>
       <c r="I294" s="4"/>
     </row>
-    <row r="295" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="4"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -4639,7 +4720,7 @@
       <c r="H295" s="5"/>
       <c r="I295" s="4"/>
     </row>
-    <row r="296" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="4"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -4648,7 +4729,7 @@
       <c r="H296" s="5"/>
       <c r="I296" s="4"/>
     </row>
-    <row r="297" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="4"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -4657,7 +4738,7 @@
       <c r="H297" s="5"/>
       <c r="I297" s="4"/>
     </row>
-    <row r="298" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="4"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -4666,7 +4747,7 @@
       <c r="H298" s="5"/>
       <c r="I298" s="4"/>
     </row>
-    <row r="299" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="4"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -4675,7 +4756,7 @@
       <c r="H299" s="5"/>
       <c r="I299" s="4"/>
     </row>
-    <row r="300" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="4"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -4684,7 +4765,7 @@
       <c r="H300" s="5"/>
       <c r="I300" s="4"/>
     </row>
-    <row r="301" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="4"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -4693,7 +4774,7 @@
       <c r="H301" s="5"/>
       <c r="I301" s="4"/>
     </row>
-    <row r="302" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="4"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -4702,7 +4783,7 @@
       <c r="H302" s="5"/>
       <c r="I302" s="4"/>
     </row>
-    <row r="303" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="4"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -4711,7 +4792,7 @@
       <c r="H303" s="5"/>
       <c r="I303" s="4"/>
     </row>
-    <row r="304" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="4"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -4720,7 +4801,7 @@
       <c r="H304" s="5"/>
       <c r="I304" s="4"/>
     </row>
-    <row r="305" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="4"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -4729,7 +4810,7 @@
       <c r="H305" s="5"/>
       <c r="I305" s="4"/>
     </row>
-    <row r="306" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="4"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -4738,7 +4819,7 @@
       <c r="H306" s="5"/>
       <c r="I306" s="4"/>
     </row>
-    <row r="307" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="4"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -4747,7 +4828,7 @@
       <c r="H307" s="5"/>
       <c r="I307" s="4"/>
     </row>
-    <row r="308" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="4"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -4756,7 +4837,7 @@
       <c r="H308" s="5"/>
       <c r="I308" s="4"/>
     </row>
-    <row r="309" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="4"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -4765,7 +4846,7 @@
       <c r="H309" s="5"/>
       <c r="I309" s="4"/>
     </row>
-    <row r="310" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="4"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -4774,7 +4855,7 @@
       <c r="H310" s="5"/>
       <c r="I310" s="4"/>
     </row>
-    <row r="311" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="4"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -4783,7 +4864,7 @@
       <c r="H311" s="5"/>
       <c r="I311" s="4"/>
     </row>
-    <row r="312" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="4"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -4792,7 +4873,7 @@
       <c r="H312" s="5"/>
       <c r="I312" s="4"/>
     </row>
-    <row r="313" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="4"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -4801,7 +4882,7 @@
       <c r="H313" s="5"/>
       <c r="I313" s="4"/>
     </row>
-    <row r="314" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="4"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -4810,7 +4891,7 @@
       <c r="H314" s="5"/>
       <c r="I314" s="4"/>
     </row>
-    <row r="315" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="4"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -4819,7 +4900,7 @@
       <c r="H315" s="5"/>
       <c r="I315" s="4"/>
     </row>
-    <row r="316" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="4"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -4828,7 +4909,7 @@
       <c r="H316" s="5"/>
       <c r="I316" s="4"/>
     </row>
-    <row r="317" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="4"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -4837,7 +4918,7 @@
       <c r="H317" s="5"/>
       <c r="I317" s="4"/>
     </row>
-    <row r="318" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="4"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -4846,7 +4927,7 @@
       <c r="H318" s="5"/>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="4"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -4855,7 +4936,7 @@
       <c r="H319" s="5"/>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C320" s="4"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -4864,7 +4945,7 @@
       <c r="H320" s="5"/>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C321" s="4"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -4873,7 +4954,7 @@
       <c r="H321" s="5"/>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C322" s="4"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -4882,7 +4963,7 @@
       <c r="H322" s="5"/>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C323" s="4"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -4891,7 +4972,7 @@
       <c r="H323" s="5"/>
       <c r="I323" s="4"/>
     </row>
-    <row r="324" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="4"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -4900,7 +4981,7 @@
       <c r="H324" s="5"/>
       <c r="I324" s="4"/>
     </row>
-    <row r="325" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="4"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -4909,7 +4990,7 @@
       <c r="H325" s="5"/>
       <c r="I325" s="4"/>
     </row>
-    <row r="326" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="4"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -4918,7 +4999,7 @@
       <c r="H326" s="5"/>
       <c r="I326" s="4"/>
     </row>
-    <row r="327" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="4"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -4927,7 +5008,7 @@
       <c r="H327" s="5"/>
       <c r="I327" s="4"/>
     </row>
-    <row r="328" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="4"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -4936,7 +5017,7 @@
       <c r="H328" s="5"/>
       <c r="I328" s="4"/>
     </row>
-    <row r="329" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="4"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -4945,7 +5026,7 @@
       <c r="H329" s="5"/>
       <c r="I329" s="4"/>
     </row>
-    <row r="330" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="4"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -4954,7 +5035,7 @@
       <c r="H330" s="5"/>
       <c r="I330" s="4"/>
     </row>
-    <row r="331" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="4"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -4963,7 +5044,7 @@
       <c r="H331" s="5"/>
       <c r="I331" s="4"/>
     </row>
-    <row r="332" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="4"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -4972,7 +5053,7 @@
       <c r="H332" s="5"/>
       <c r="I332" s="4"/>
     </row>
-    <row r="333" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C333" s="4"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -4981,7 +5062,7 @@
       <c r="H333" s="5"/>
       <c r="I333" s="4"/>
     </row>
-    <row r="334" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C334" s="4"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -4990,7 +5071,7 @@
       <c r="H334" s="5"/>
       <c r="I334" s="4"/>
     </row>
-    <row r="335" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C335" s="4"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -4999,7 +5080,7 @@
       <c r="H335" s="5"/>
       <c r="I335" s="4"/>
     </row>
-    <row r="336" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C336" s="4"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -5008,7 +5089,7 @@
       <c r="H336" s="5"/>
       <c r="I336" s="4"/>
     </row>
-    <row r="337" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C337" s="4"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -5017,7 +5098,7 @@
       <c r="H337" s="5"/>
       <c r="I337" s="4"/>
     </row>
-    <row r="338" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="4"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -5026,7 +5107,7 @@
       <c r="H338" s="5"/>
       <c r="I338" s="4"/>
     </row>
-    <row r="339" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="4"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -5035,7 +5116,7 @@
       <c r="H339" s="5"/>
       <c r="I339" s="4"/>
     </row>
-    <row r="340" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="4"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -5044,7 +5125,7 @@
       <c r="H340" s="5"/>
       <c r="I340" s="4"/>
     </row>
-    <row r="341" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="4"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -5053,7 +5134,7 @@
       <c r="H341" s="5"/>
       <c r="I341" s="4"/>
     </row>
-    <row r="342" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="4"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -5062,7 +5143,7 @@
       <c r="H342" s="5"/>
       <c r="I342" s="4"/>
     </row>
-    <row r="343" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="4"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -5071,7 +5152,7 @@
       <c r="H343" s="5"/>
       <c r="I343" s="4"/>
     </row>
-    <row r="344" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="4"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -5080,7 +5161,7 @@
       <c r="H344" s="5"/>
       <c r="I344" s="4"/>
     </row>
-    <row r="345" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="4"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -5089,7 +5170,7 @@
       <c r="H345" s="5"/>
       <c r="I345" s="4"/>
     </row>
-    <row r="346" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="4"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -5098,7 +5179,7 @@
       <c r="H346" s="5"/>
       <c r="I346" s="4"/>
     </row>
-    <row r="347" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="4"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -5107,7 +5188,7 @@
       <c r="H347" s="5"/>
       <c r="I347" s="4"/>
     </row>
-    <row r="348" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="4"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -5116,7 +5197,7 @@
       <c r="H348" s="5"/>
       <c r="I348" s="4"/>
     </row>
-    <row r="349" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="4"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -5125,7 +5206,7 @@
       <c r="H349" s="5"/>
       <c r="I349" s="4"/>
     </row>
-    <row r="350" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="4"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -5134,7 +5215,7 @@
       <c r="H350" s="5"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="4"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -5143,7 +5224,7 @@
       <c r="H351" s="5"/>
       <c r="I351" s="4"/>
     </row>
-    <row r="352" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="4"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -5152,7 +5233,7 @@
       <c r="H352" s="5"/>
       <c r="I352" s="4"/>
     </row>
-    <row r="353" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C353" s="4"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -5161,7 +5242,7 @@
       <c r="H353" s="5"/>
       <c r="I353" s="4"/>
     </row>
-    <row r="354" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C354" s="4"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -5170,7 +5251,7 @@
       <c r="H354" s="5"/>
       <c r="I354" s="4"/>
     </row>
-    <row r="355" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C355" s="4"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -5179,7 +5260,7 @@
       <c r="H355" s="5"/>
       <c r="I355" s="4"/>
     </row>
-    <row r="356" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C356" s="4"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -5188,7 +5269,7 @@
       <c r="H356" s="5"/>
       <c r="I356" s="4"/>
     </row>
-    <row r="357" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C357" s="4"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -5197,7 +5278,7 @@
       <c r="H357" s="5"/>
       <c r="I357" s="4"/>
     </row>
-    <row r="358" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="4"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -5206,7 +5287,7 @@
       <c r="H358" s="5"/>
       <c r="I358" s="4"/>
     </row>
-    <row r="359" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="4"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -5215,7 +5296,7 @@
       <c r="H359" s="5"/>
       <c r="I359" s="4"/>
     </row>
-    <row r="360" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="4"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -5224,7 +5305,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C361" s="4"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -5233,7 +5314,7 @@
       <c r="H361" s="5"/>
       <c r="I361" s="4"/>
     </row>
-    <row r="362" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C362" s="4"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -5242,7 +5323,7 @@
       <c r="H362" s="5"/>
       <c r="I362" s="4"/>
     </row>
-    <row r="363" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C363" s="4"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -5251,7 +5332,7 @@
       <c r="H363" s="5"/>
       <c r="I363" s="4"/>
     </row>
-    <row r="364" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C364" s="4"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -5260,7 +5341,7 @@
       <c r="H364" s="5"/>
       <c r="I364" s="4"/>
     </row>
-    <row r="365" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C365" s="4"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -5269,7 +5350,7 @@
       <c r="H365" s="5"/>
       <c r="I365" s="4"/>
     </row>
-    <row r="366" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="4"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -5278,7 +5359,7 @@
       <c r="H366" s="5"/>
       <c r="I366" s="4"/>
     </row>
-    <row r="367" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="4"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -5287,7 +5368,7 @@
       <c r="H367" s="5"/>
       <c r="I367" s="4"/>
     </row>
-    <row r="368" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="4"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -5296,7 +5377,7 @@
       <c r="H368" s="5"/>
       <c r="I368" s="4"/>
     </row>
-    <row r="369" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C369" s="4"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -5305,7 +5386,7 @@
       <c r="H369" s="5"/>
       <c r="I369" s="4"/>
     </row>
-    <row r="370" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C370" s="4"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -5314,7 +5395,7 @@
       <c r="H370" s="5"/>
       <c r="I370" s="4"/>
     </row>
-    <row r="371" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="4"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -5323,7 +5404,7 @@
       <c r="H371" s="5"/>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="4"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -5332,7 +5413,7 @@
       <c r="H372" s="5"/>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="4"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -5341,7 +5422,7 @@
       <c r="H373" s="5"/>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="4"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -5350,7 +5431,7 @@
       <c r="H374" s="5"/>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="4"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -5359,7 +5440,7 @@
       <c r="H375" s="5"/>
       <c r="I375" s="4"/>
     </row>
-    <row r="376" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="4"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -5368,7 +5449,7 @@
       <c r="H376" s="5"/>
       <c r="I376" s="4"/>
     </row>
-    <row r="377" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="4"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -5377,7 +5458,7 @@
       <c r="H377" s="5"/>
       <c r="I377" s="4"/>
     </row>
-    <row r="378" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="4"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -5386,7 +5467,7 @@
       <c r="H378" s="5"/>
       <c r="I378" s="4"/>
     </row>
-    <row r="379" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="4"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -5395,7 +5476,7 @@
       <c r="H379" s="5"/>
       <c r="I379" s="4"/>
     </row>
-    <row r="380" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="4"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -5404,7 +5485,7 @@
       <c r="H380" s="5"/>
       <c r="I380" s="4"/>
     </row>
-    <row r="381" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="4"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -5413,7 +5494,7 @@
       <c r="H381" s="5"/>
       <c r="I381" s="4"/>
     </row>
-    <row r="382" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="4"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -5422,7 +5503,7 @@
       <c r="H382" s="5"/>
       <c r="I382" s="4"/>
     </row>
-    <row r="383" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="4"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -5431,7 +5512,7 @@
       <c r="H383" s="5"/>
       <c r="I383" s="4"/>
     </row>
-    <row r="384" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="4"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -5440,7 +5521,7 @@
       <c r="H384" s="5"/>
       <c r="I384" s="4"/>
     </row>
-    <row r="385" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C385" s="4"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -5449,7 +5530,7 @@
       <c r="H385" s="5"/>
       <c r="I385" s="4"/>
     </row>
-    <row r="386" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C386" s="4"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -5458,7 +5539,7 @@
       <c r="H386" s="5"/>
       <c r="I386" s="4"/>
     </row>
-    <row r="387" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C387" s="4"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -5467,7 +5548,7 @@
       <c r="H387" s="5"/>
       <c r="I387" s="4"/>
     </row>
-    <row r="388" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C388" s="4"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -5476,7 +5557,7 @@
       <c r="H388" s="5"/>
       <c r="I388" s="4"/>
     </row>
-    <row r="389" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C389" s="4"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -5485,7 +5566,7 @@
       <c r="H389" s="5"/>
       <c r="I389" s="4"/>
     </row>
-    <row r="390" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C390" s="4"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -5494,7 +5575,7 @@
       <c r="H390" s="5"/>
       <c r="I390" s="4"/>
     </row>
-    <row r="391" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="4"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -5503,7 +5584,7 @@
       <c r="H391" s="5"/>
       <c r="I391" s="4"/>
     </row>
-    <row r="392" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="4"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -5512,7 +5593,7 @@
       <c r="H392" s="5"/>
       <c r="I392" s="4"/>
     </row>
-    <row r="393" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="4"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -5521,7 +5602,7 @@
       <c r="H393" s="5"/>
       <c r="I393" s="4"/>
     </row>
-    <row r="394" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C394" s="4"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -5530,7 +5611,7 @@
       <c r="H394" s="5"/>
       <c r="I394" s="4"/>
     </row>
-    <row r="395" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C395" s="4"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -5539,7 +5620,7 @@
       <c r="H395" s="5"/>
       <c r="I395" s="4"/>
     </row>
-    <row r="396" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C396" s="4"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -5548,7 +5629,7 @@
       <c r="H396" s="5"/>
       <c r="I396" s="4"/>
     </row>
-    <row r="397" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C397" s="4"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -5557,7 +5638,7 @@
       <c r="H397" s="5"/>
       <c r="I397" s="4"/>
     </row>
-    <row r="398" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C398" s="4"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -5566,7 +5647,7 @@
       <c r="H398" s="5"/>
       <c r="I398" s="4"/>
     </row>
-    <row r="399" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C399" s="4"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -5575,7 +5656,7 @@
       <c r="H399" s="5"/>
       <c r="I399" s="4"/>
     </row>
-    <row r="400" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C400" s="4"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -5584,7 +5665,7 @@
       <c r="H400" s="5"/>
       <c r="I400" s="4"/>
     </row>
-    <row r="401" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="4"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -5593,7 +5674,7 @@
       <c r="H401" s="5"/>
       <c r="I401" s="4"/>
     </row>
-    <row r="402" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="4"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -5602,7 +5683,7 @@
       <c r="H402" s="5"/>
       <c r="I402" s="4"/>
     </row>
-    <row r="403" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="4"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -5611,7 +5692,7 @@
       <c r="H403" s="5"/>
       <c r="I403" s="4"/>
     </row>
-    <row r="404" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="4"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -5620,7 +5701,7 @@
       <c r="H404" s="5"/>
       <c r="I404" s="4"/>
     </row>
-    <row r="405" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="4"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -5629,7 +5710,7 @@
       <c r="H405" s="5"/>
       <c r="I405" s="4"/>
     </row>
-    <row r="406" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="4"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -5638,7 +5719,7 @@
       <c r="H406" s="5"/>
       <c r="I406" s="4"/>
     </row>
-    <row r="407" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="4"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -5647,7 +5728,7 @@
       <c r="H407" s="5"/>
       <c r="I407" s="4"/>
     </row>
-    <row r="408" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="4"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -5656,7 +5737,7 @@
       <c r="H408" s="5"/>
       <c r="I408" s="4"/>
     </row>
-    <row r="409" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="4"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -5665,7 +5746,7 @@
       <c r="H409" s="5"/>
       <c r="I409" s="4"/>
     </row>
-    <row r="410" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="4"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -5674,7 +5755,7 @@
       <c r="H410" s="5"/>
       <c r="I410" s="4"/>
     </row>
-    <row r="411" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C411" s="4"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -5683,7 +5764,7 @@
       <c r="H411" s="5"/>
       <c r="I411" s="4"/>
     </row>
-    <row r="412" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C412" s="4"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -5692,7 +5773,7 @@
       <c r="H412" s="5"/>
       <c r="I412" s="4"/>
     </row>
-    <row r="413" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C413" s="4"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -5701,7 +5782,7 @@
       <c r="H413" s="5"/>
       <c r="I413" s="4"/>
     </row>
-    <row r="414" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C414" s="4"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -5710,7 +5791,7 @@
       <c r="H414" s="5"/>
       <c r="I414" s="4"/>
     </row>
-    <row r="415" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C415" s="4"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -5719,7 +5800,7 @@
       <c r="H415" s="5"/>
       <c r="I415" s="4"/>
     </row>
-    <row r="416" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="4"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -5728,7 +5809,7 @@
       <c r="H416" s="5"/>
       <c r="I416" s="4"/>
     </row>
-    <row r="417" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="4"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -5737,7 +5818,7 @@
       <c r="H417" s="5"/>
       <c r="I417" s="4"/>
     </row>
-    <row r="418" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="4"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -5746,7 +5827,7 @@
       <c r="H418" s="5"/>
       <c r="I418" s="4"/>
     </row>
-    <row r="419" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="4"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -5755,7 +5836,7 @@
       <c r="H419" s="5"/>
       <c r="I419" s="4"/>
     </row>
-    <row r="420" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C420" s="4"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -5764,7 +5845,7 @@
       <c r="H420" s="5"/>
       <c r="I420" s="4"/>
     </row>
-    <row r="421" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="4"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -5773,7 +5854,7 @@
       <c r="H421" s="5"/>
       <c r="I421" s="4"/>
     </row>
-    <row r="422" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="4"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -5782,7 +5863,7 @@
       <c r="H422" s="5"/>
       <c r="I422" s="4"/>
     </row>
-    <row r="423" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="4"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -5791,7 +5872,7 @@
       <c r="H423" s="5"/>
       <c r="I423" s="4"/>
     </row>
-    <row r="424" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="4"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -5800,7 +5881,7 @@
       <c r="H424" s="5"/>
       <c r="I424" s="4"/>
     </row>
-    <row r="425" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C425" s="4"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -5809,7 +5890,7 @@
       <c r="H425" s="5"/>
       <c r="I425" s="4"/>
     </row>
-    <row r="426" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="4"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -5818,7 +5899,7 @@
       <c r="H426" s="5"/>
       <c r="I426" s="4"/>
     </row>
-    <row r="427" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="4"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -5827,7 +5908,7 @@
       <c r="H427" s="5"/>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="4"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -5836,7 +5917,7 @@
       <c r="H428" s="5"/>
       <c r="I428" s="4"/>
     </row>
-    <row r="429" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="4"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -5845,7 +5926,7 @@
       <c r="H429" s="5"/>
       <c r="I429" s="4"/>
     </row>
-    <row r="430" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="4"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -5854,7 +5935,7 @@
       <c r="H430" s="5"/>
       <c r="I430" s="4"/>
     </row>
-    <row r="431" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="4"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -5863,7 +5944,7 @@
       <c r="H431" s="5"/>
       <c r="I431" s="4"/>
     </row>
-    <row r="432" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="4"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -5872,7 +5953,7 @@
       <c r="H432" s="5"/>
       <c r="I432" s="4"/>
     </row>
-    <row r="433" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C433" s="4"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -5881,7 +5962,7 @@
       <c r="H433" s="5"/>
       <c r="I433" s="4"/>
     </row>
-    <row r="434" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C434" s="4"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -5890,7 +5971,7 @@
       <c r="H434" s="5"/>
       <c r="I434" s="4"/>
     </row>
-    <row r="435" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C435" s="4"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -5899,7 +5980,7 @@
       <c r="H435" s="5"/>
       <c r="I435" s="4"/>
     </row>
-    <row r="436" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C436" s="4"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -5908,7 +5989,7 @@
       <c r="H436" s="5"/>
       <c r="I436" s="4"/>
     </row>
-    <row r="437" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C437" s="4"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -5917,7 +5998,7 @@
       <c r="H437" s="5"/>
       <c r="I437" s="4"/>
     </row>
-    <row r="438" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C438" s="4"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -5926,7 +6007,7 @@
       <c r="H438" s="5"/>
       <c r="I438" s="4"/>
     </row>
-    <row r="439" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C439" s="4"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -5935,7 +6016,7 @@
       <c r="H439" s="5"/>
       <c r="I439" s="4"/>
     </row>
-    <row r="440" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C440" s="4"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -5944,7 +6025,7 @@
       <c r="H440" s="5"/>
       <c r="I440" s="4"/>
     </row>
-    <row r="441" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C441" s="4"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -5953,7 +6034,7 @@
       <c r="H441" s="5"/>
       <c r="I441" s="4"/>
     </row>
-    <row r="442" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C442" s="4"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -5962,7 +6043,7 @@
       <c r="H442" s="5"/>
       <c r="I442" s="4"/>
     </row>
-    <row r="443" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C443" s="4"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -5971,7 +6052,7 @@
       <c r="H443" s="5"/>
       <c r="I443" s="4"/>
     </row>
-    <row r="444" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C444" s="4"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -5980,7 +6061,7 @@
       <c r="H444" s="5"/>
       <c r="I444" s="4"/>
     </row>
-    <row r="445" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C445" s="4"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -5989,7 +6070,7 @@
       <c r="H445" s="5"/>
       <c r="I445" s="4"/>
     </row>
-    <row r="446" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C446" s="4"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -5998,7 +6079,7 @@
       <c r="H446" s="5"/>
       <c r="I446" s="4"/>
     </row>
-    <row r="447" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C447" s="4"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -6007,7 +6088,7 @@
       <c r="H447" s="5"/>
       <c r="I447" s="4"/>
     </row>
-    <row r="448" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C448" s="4"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -6016,7 +6097,7 @@
       <c r="H448" s="5"/>
       <c r="I448" s="4"/>
     </row>
-    <row r="449" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C449" s="4"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -6025,7 +6106,7 @@
       <c r="H449" s="5"/>
       <c r="I449" s="4"/>
     </row>
-    <row r="450" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C450" s="4"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -6034,7 +6115,7 @@
       <c r="H450" s="5"/>
       <c r="I450" s="4"/>
     </row>
-    <row r="451" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C451" s="4"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -6043,7 +6124,7 @@
       <c r="H451" s="5"/>
       <c r="I451" s="4"/>
     </row>
-    <row r="452" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C452" s="4"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -6052,7 +6133,7 @@
       <c r="H452" s="5"/>
       <c r="I452" s="4"/>
     </row>
-    <row r="453" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C453" s="4"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -6061,7 +6142,7 @@
       <c r="H453" s="5"/>
       <c r="I453" s="4"/>
     </row>
-    <row r="454" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C454" s="4"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -6070,7 +6151,7 @@
       <c r="H454" s="5"/>
       <c r="I454" s="4"/>
     </row>
-    <row r="455" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C455" s="4"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -6079,7 +6160,7 @@
       <c r="H455" s="5"/>
       <c r="I455" s="4"/>
     </row>
-    <row r="456" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C456" s="4"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -6088,7 +6169,7 @@
       <c r="H456" s="5"/>
       <c r="I456" s="4"/>
     </row>
-    <row r="457" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C457" s="4"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -6097,7 +6178,7 @@
       <c r="H457" s="5"/>
       <c r="I457" s="4"/>
     </row>
-    <row r="458" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C458" s="4"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -6106,7 +6187,7 @@
       <c r="H458" s="5"/>
       <c r="I458" s="4"/>
     </row>
-    <row r="459" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C459" s="4"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -6115,7 +6196,7 @@
       <c r="H459" s="5"/>
       <c r="I459" s="4"/>
     </row>
-    <row r="460" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C460" s="4"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -6124,7 +6205,7 @@
       <c r="H460" s="5"/>
       <c r="I460" s="4"/>
     </row>
-    <row r="461" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C461" s="4"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -6133,7 +6214,7 @@
       <c r="H461" s="5"/>
       <c r="I461" s="4"/>
     </row>
-    <row r="462" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C462" s="4"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -6142,7 +6223,7 @@
       <c r="H462" s="5"/>
       <c r="I462" s="4"/>
     </row>
-    <row r="463" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C463" s="4"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -6151,7 +6232,7 @@
       <c r="H463" s="5"/>
       <c r="I463" s="4"/>
     </row>
-    <row r="464" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C464" s="4"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -6160,7 +6241,7 @@
       <c r="H464" s="5"/>
       <c r="I464" s="4"/>
     </row>
-    <row r="465" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C465" s="4"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -6169,7 +6250,7 @@
       <c r="H465" s="5"/>
       <c r="I465" s="4"/>
     </row>
-    <row r="466" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C466" s="4"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -6178,7 +6259,7 @@
       <c r="H466" s="5"/>
       <c r="I466" s="4"/>
     </row>
-    <row r="467" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C467" s="4"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -6187,7 +6268,7 @@
       <c r="H467" s="5"/>
       <c r="I467" s="4"/>
     </row>
-    <row r="468" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C468" s="4"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -6196,7 +6277,7 @@
       <c r="H468" s="5"/>
       <c r="I468" s="4"/>
     </row>
-    <row r="469" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="4"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -6205,7 +6286,7 @@
       <c r="H469" s="5"/>
       <c r="I469" s="4"/>
     </row>
-    <row r="470" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="4"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -6214,7 +6295,7 @@
       <c r="H470" s="5"/>
       <c r="I470" s="4"/>
     </row>
-    <row r="471" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C471" s="4"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -6223,7 +6304,7 @@
       <c r="H471" s="5"/>
       <c r="I471" s="4"/>
     </row>
-    <row r="472" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="4"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -6232,7 +6313,7 @@
       <c r="H472" s="5"/>
       <c r="I472" s="4"/>
     </row>
-    <row r="473" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="4"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -6241,7 +6322,7 @@
       <c r="H473" s="5"/>
       <c r="I473" s="4"/>
     </row>
-    <row r="474" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C474" s="4"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -6250,7 +6331,7 @@
       <c r="H474" s="5"/>
       <c r="I474" s="4"/>
     </row>
-    <row r="475" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C475" s="4"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -6259,7 +6340,7 @@
       <c r="H475" s="5"/>
       <c r="I475" s="4"/>
     </row>
-    <row r="476" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C476" s="4"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -6268,7 +6349,7 @@
       <c r="H476" s="5"/>
       <c r="I476" s="4"/>
     </row>
-    <row r="477" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C477" s="4"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -6277,7 +6358,7 @@
       <c r="H477" s="5"/>
       <c r="I477" s="4"/>
     </row>
-    <row r="478" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C478" s="4"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -6286,7 +6367,7 @@
       <c r="H478" s="5"/>
       <c r="I478" s="4"/>
     </row>
-    <row r="479" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C479" s="4"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -6295,7 +6376,7 @@
       <c r="H479" s="5"/>
       <c r="I479" s="4"/>
     </row>
-    <row r="480" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C480" s="4"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -6304,7 +6385,7 @@
       <c r="H480" s="5"/>
       <c r="I480" s="4"/>
     </row>
-    <row r="481" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="4"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -6313,7 +6394,7 @@
       <c r="H481" s="5"/>
       <c r="I481" s="4"/>
     </row>
-    <row r="482" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="4"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -6322,7 +6403,7 @@
       <c r="H482" s="5"/>
       <c r="I482" s="4"/>
     </row>
-    <row r="483" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C483" s="4"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -6331,7 +6412,7 @@
       <c r="H483" s="5"/>
       <c r="I483" s="4"/>
     </row>
-    <row r="484" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C484" s="4"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -6340,7 +6421,7 @@
       <c r="H484" s="5"/>
       <c r="I484" s="4"/>
     </row>
-    <row r="485" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C485" s="4"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -6349,7 +6430,7 @@
       <c r="H485" s="5"/>
       <c r="I485" s="4"/>
     </row>
-    <row r="486" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C486" s="4"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -6358,7 +6439,7 @@
       <c r="H486" s="5"/>
       <c r="I486" s="4"/>
     </row>
-    <row r="487" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C487" s="4"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -6367,7 +6448,7 @@
       <c r="H487" s="5"/>
       <c r="I487" s="4"/>
     </row>
-    <row r="488" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C488" s="4"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -6376,7 +6457,7 @@
       <c r="H488" s="5"/>
       <c r="I488" s="4"/>
     </row>
-    <row r="489" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C489" s="4"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -6385,7 +6466,7 @@
       <c r="H489" s="5"/>
       <c r="I489" s="4"/>
     </row>
-    <row r="490" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C490" s="4"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -6394,7 +6475,7 @@
       <c r="H490" s="5"/>
       <c r="I490" s="4"/>
     </row>
-    <row r="491" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C491" s="4"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -6403,7 +6484,7 @@
       <c r="H491" s="5"/>
       <c r="I491" s="4"/>
     </row>
-    <row r="492" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C492" s="4"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -6412,7 +6493,7 @@
       <c r="H492" s="5"/>
       <c r="I492" s="4"/>
     </row>
-    <row r="493" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C493" s="4"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -6421,7 +6502,7 @@
       <c r="H493" s="5"/>
       <c r="I493" s="4"/>
     </row>
-    <row r="494" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C494" s="4"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -6430,7 +6511,7 @@
       <c r="H494" s="5"/>
       <c r="I494" s="4"/>
     </row>
-    <row r="495" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C495" s="4"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -6439,7 +6520,7 @@
       <c r="H495" s="5"/>
       <c r="I495" s="4"/>
     </row>
-    <row r="496" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C496" s="4"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -6448,7 +6529,7 @@
       <c r="H496" s="5"/>
       <c r="I496" s="4"/>
     </row>
-    <row r="497" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C497" s="4"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -6457,7 +6538,7 @@
       <c r="H497" s="5"/>
       <c r="I497" s="4"/>
     </row>
-    <row r="498" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C498" s="4"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -6466,7 +6547,7 @@
       <c r="H498" s="5"/>
       <c r="I498" s="4"/>
     </row>
-    <row r="499" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C499" s="4"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -6475,7 +6556,7 @@
       <c r="H499" s="5"/>
       <c r="I499" s="4"/>
     </row>
-    <row r="500" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C500" s="4"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -6484,7 +6565,7 @@
       <c r="H500" s="5"/>
       <c r="I500" s="4"/>
     </row>
-    <row r="501" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C501" s="4"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -6493,7 +6574,7 @@
       <c r="H501" s="5"/>
       <c r="I501" s="4"/>
     </row>
-    <row r="502" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C502" s="4"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -6502,7 +6583,7 @@
       <c r="H502" s="5"/>
       <c r="I502" s="4"/>
     </row>
-    <row r="503" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C503" s="4"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -6511,7 +6592,7 @@
       <c r="H503" s="5"/>
       <c r="I503" s="4"/>
     </row>
-    <row r="504" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C504" s="4"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -6520,7 +6601,7 @@
       <c r="H504" s="5"/>
       <c r="I504" s="4"/>
     </row>
-    <row r="505" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C505" s="4"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -6529,7 +6610,7 @@
       <c r="H505" s="5"/>
       <c r="I505" s="4"/>
     </row>
-    <row r="506" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C506" s="4"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -6538,7 +6619,7 @@
       <c r="H506" s="5"/>
       <c r="I506" s="4"/>
     </row>
-    <row r="507" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C507" s="4"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -6547,7 +6628,7 @@
       <c r="H507" s="5"/>
       <c r="I507" s="4"/>
     </row>
-    <row r="508" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C508" s="4"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -6556,7 +6637,7 @@
       <c r="H508" s="5"/>
       <c r="I508" s="4"/>
     </row>
-    <row r="509" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C509" s="4"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -6565,7 +6646,7 @@
       <c r="H509" s="5"/>
       <c r="I509" s="4"/>
     </row>
-    <row r="510" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C510" s="4"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -6574,7 +6655,7 @@
       <c r="H510" s="5"/>
       <c r="I510" s="4"/>
     </row>
-    <row r="511" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C511" s="4"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -6583,7 +6664,7 @@
       <c r="H511" s="5"/>
       <c r="I511" s="4"/>
     </row>
-    <row r="512" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C512" s="4"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -6592,7 +6673,7 @@
       <c r="H512" s="5"/>
       <c r="I512" s="4"/>
     </row>
-    <row r="513" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C513" s="4"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -6601,7 +6682,7 @@
       <c r="H513" s="5"/>
       <c r="I513" s="4"/>
     </row>
-    <row r="514" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C514" s="4"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -6610,7 +6691,7 @@
       <c r="H514" s="5"/>
       <c r="I514" s="4"/>
     </row>
-    <row r="515" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C515" s="4"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -6619,7 +6700,7 @@
       <c r="H515" s="5"/>
       <c r="I515" s="4"/>
     </row>
-    <row r="516" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="4"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -6628,7 +6709,7 @@
       <c r="H516" s="5"/>
       <c r="I516" s="4"/>
     </row>
-    <row r="517" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C517" s="4"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -6637,7 +6718,7 @@
       <c r="H517" s="5"/>
       <c r="I517" s="4"/>
     </row>
-    <row r="518" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="4"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -6646,7 +6727,7 @@
       <c r="H518" s="5"/>
       <c r="I518" s="4"/>
     </row>
-    <row r="519" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C519" s="4"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -6655,7 +6736,7 @@
       <c r="H519" s="5"/>
       <c r="I519" s="4"/>
     </row>
-    <row r="520" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C520" s="4"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -6664,7 +6745,7 @@
       <c r="H520" s="5"/>
       <c r="I520" s="4"/>
     </row>
-    <row r="521" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C521" s="4"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -6673,7 +6754,7 @@
       <c r="H521" s="5"/>
       <c r="I521" s="4"/>
     </row>
-    <row r="522" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C522" s="4"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -6682,7 +6763,7 @@
       <c r="H522" s="5"/>
       <c r="I522" s="4"/>
     </row>
-    <row r="523" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C523" s="4"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -6691,7 +6772,7 @@
       <c r="H523" s="5"/>
       <c r="I523" s="4"/>
     </row>
-    <row r="524" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C524" s="4"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -6700,7 +6781,7 @@
       <c r="H524" s="5"/>
       <c r="I524" s="4"/>
     </row>
-    <row r="525" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C525" s="4"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -6709,7 +6790,7 @@
       <c r="H525" s="5"/>
       <c r="I525" s="4"/>
     </row>
-    <row r="526" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C526" s="4"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -6718,7 +6799,7 @@
       <c r="H526" s="5"/>
       <c r="I526" s="4"/>
     </row>
-    <row r="527" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C527" s="4"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -6727,7 +6808,7 @@
       <c r="H527" s="5"/>
       <c r="I527" s="4"/>
     </row>
-    <row r="528" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C528" s="4"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -6736,7 +6817,7 @@
       <c r="H528" s="5"/>
       <c r="I528" s="4"/>
     </row>
-    <row r="529" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C529" s="4"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -6745,7 +6826,7 @@
       <c r="H529" s="5"/>
       <c r="I529" s="4"/>
     </row>
-    <row r="530" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C530" s="4"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -6754,7 +6835,7 @@
       <c r="H530" s="5"/>
       <c r="I530" s="4"/>
     </row>
-    <row r="531" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C531" s="4"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -6763,7 +6844,7 @@
       <c r="H531" s="5"/>
       <c r="I531" s="4"/>
     </row>
-    <row r="532" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C532" s="4"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -6772,7 +6853,7 @@
       <c r="H532" s="5"/>
       <c r="I532" s="4"/>
     </row>
-    <row r="533" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C533" s="4"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -6781,7 +6862,7 @@
       <c r="H533" s="5"/>
       <c r="I533" s="4"/>
     </row>
-    <row r="534" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C534" s="4"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -6790,7 +6871,7 @@
       <c r="H534" s="5"/>
       <c r="I534" s="4"/>
     </row>
-    <row r="535" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C535" s="4"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -6799,7 +6880,7 @@
       <c r="H535" s="5"/>
       <c r="I535" s="4"/>
     </row>
-    <row r="536" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C536" s="4"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -6808,7 +6889,7 @@
       <c r="H536" s="5"/>
       <c r="I536" s="4"/>
     </row>
-    <row r="537" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C537" s="4"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -6817,7 +6898,7 @@
       <c r="H537" s="5"/>
       <c r="I537" s="4"/>
     </row>
-    <row r="538" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C538" s="4"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -6826,7 +6907,7 @@
       <c r="H538" s="5"/>
       <c r="I538" s="4"/>
     </row>
-    <row r="539" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C539" s="4"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -6835,7 +6916,7 @@
       <c r="H539" s="5"/>
       <c r="I539" s="4"/>
     </row>
-    <row r="540" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C540" s="4"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -6844,7 +6925,7 @@
       <c r="H540" s="5"/>
       <c r="I540" s="4"/>
     </row>
-    <row r="541" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C541" s="4"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -6853,7 +6934,7 @@
       <c r="H541" s="5"/>
       <c r="I541" s="4"/>
     </row>
-    <row r="542" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C542" s="4"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -6862,7 +6943,7 @@
       <c r="H542" s="5"/>
       <c r="I542" s="4"/>
     </row>
-    <row r="543" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C543" s="4"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -6871,7 +6952,7 @@
       <c r="H543" s="5"/>
       <c r="I543" s="4"/>
     </row>
-    <row r="544" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C544" s="4"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -6880,7 +6961,7 @@
       <c r="H544" s="5"/>
       <c r="I544" s="4"/>
     </row>
-    <row r="545" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C545" s="4"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -6889,7 +6970,7 @@
       <c r="H545" s="5"/>
       <c r="I545" s="4"/>
     </row>
-    <row r="546" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C546" s="4"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -6898,7 +6979,7 @@
       <c r="H546" s="5"/>
       <c r="I546" s="4"/>
     </row>
-    <row r="547" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C547" s="4"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -6907,7 +6988,7 @@
       <c r="H547" s="5"/>
       <c r="I547" s="4"/>
     </row>
-    <row r="548" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C548" s="4"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -6916,7 +6997,7 @@
       <c r="H548" s="5"/>
       <c r="I548" s="4"/>
     </row>
-    <row r="549" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C549" s="4"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -6925,7 +7006,7 @@
       <c r="H549" s="5"/>
       <c r="I549" s="4"/>
     </row>
-    <row r="550" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C550" s="4"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -6934,7 +7015,7 @@
       <c r="H550" s="5"/>
       <c r="I550" s="4"/>
     </row>
-    <row r="551" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C551" s="4"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -6943,7 +7024,7 @@
       <c r="H551" s="5"/>
       <c r="I551" s="4"/>
     </row>
-    <row r="552" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C552" s="4"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -6952,7 +7033,7 @@
       <c r="H552" s="5"/>
       <c r="I552" s="4"/>
     </row>
-    <row r="553" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C553" s="4"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -6961,7 +7042,7 @@
       <c r="H553" s="5"/>
       <c r="I553" s="4"/>
     </row>
-    <row r="554" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C554" s="4"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -6970,7 +7051,7 @@
       <c r="H554" s="5"/>
       <c r="I554" s="4"/>
     </row>
-    <row r="555" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C555" s="4"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -6979,7 +7060,7 @@
       <c r="H555" s="5"/>
       <c r="I555" s="4"/>
     </row>
-    <row r="556" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C556" s="4"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -6988,7 +7069,7 @@
       <c r="H556" s="5"/>
       <c r="I556" s="4"/>
     </row>
-    <row r="557" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C557" s="4"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -6997,7 +7078,7 @@
       <c r="H557" s="5"/>
       <c r="I557" s="4"/>
     </row>
-    <row r="558" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C558" s="4"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -7006,7 +7087,7 @@
       <c r="H558" s="5"/>
       <c r="I558" s="4"/>
     </row>
-    <row r="559" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C559" s="4"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -7015,7 +7096,7 @@
       <c r="H559" s="5"/>
       <c r="I559" s="4"/>
     </row>
-    <row r="560" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C560" s="4"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -7024,7 +7105,7 @@
       <c r="H560" s="5"/>
       <c r="I560" s="4"/>
     </row>
-    <row r="561" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C561" s="4"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -7033,7 +7114,7 @@
       <c r="H561" s="5"/>
       <c r="I561" s="4"/>
     </row>
-    <row r="562" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C562" s="4"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -7042,7 +7123,7 @@
       <c r="H562" s="5"/>
       <c r="I562" s="4"/>
     </row>
-    <row r="563" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C563" s="4"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -7051,7 +7132,7 @@
       <c r="H563" s="5"/>
       <c r="I563" s="4"/>
     </row>
-    <row r="564" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C564" s="4"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -7060,7 +7141,7 @@
       <c r="H564" s="5"/>
       <c r="I564" s="4"/>
     </row>
-    <row r="565" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C565" s="4"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -7069,7 +7150,7 @@
       <c r="H565" s="5"/>
       <c r="I565" s="4"/>
     </row>
-    <row r="566" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C566" s="4"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -7078,7 +7159,7 @@
       <c r="H566" s="5"/>
       <c r="I566" s="4"/>
     </row>
-    <row r="567" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C567" s="4"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -7087,7 +7168,7 @@
       <c r="H567" s="5"/>
       <c r="I567" s="4"/>
     </row>
-    <row r="568" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C568" s="4"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -7096,7 +7177,7 @@
       <c r="H568" s="5"/>
       <c r="I568" s="4"/>
     </row>
-    <row r="569" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C569" s="4"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -7105,7 +7186,7 @@
       <c r="H569" s="5"/>
       <c r="I569" s="4"/>
     </row>
-    <row r="570" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C570" s="4"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -7114,7 +7195,7 @@
       <c r="H570" s="5"/>
       <c r="I570" s="4"/>
     </row>
-    <row r="571" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C571" s="4"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -7123,7 +7204,7 @@
       <c r="H571" s="5"/>
       <c r="I571" s="4"/>
     </row>
-    <row r="572" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C572" s="4"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -7132,7 +7213,7 @@
       <c r="H572" s="5"/>
       <c r="I572" s="4"/>
     </row>
-    <row r="573" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C573" s="4"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -7141,7 +7222,7 @@
       <c r="H573" s="5"/>
       <c r="I573" s="4"/>
     </row>
-    <row r="574" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C574" s="4"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -7150,7 +7231,7 @@
       <c r="H574" s="5"/>
       <c r="I574" s="4"/>
     </row>
-    <row r="575" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C575" s="4"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -7159,7 +7240,7 @@
       <c r="H575" s="5"/>
       <c r="I575" s="4"/>
     </row>
-    <row r="576" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C576" s="4"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -7168,7 +7249,7 @@
       <c r="H576" s="5"/>
       <c r="I576" s="4"/>
     </row>
-    <row r="577" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C577" s="4"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -7177,7 +7258,7 @@
       <c r="H577" s="5"/>
       <c r="I577" s="4"/>
     </row>
-    <row r="578" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C578" s="4"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -7186,7 +7267,7 @@
       <c r="H578" s="5"/>
       <c r="I578" s="4"/>
     </row>
-    <row r="579" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C579" s="4"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -7195,7 +7276,7 @@
       <c r="H579" s="5"/>
       <c r="I579" s="4"/>
     </row>
-    <row r="580" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C580" s="4"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -7204,7 +7285,7 @@
       <c r="H580" s="5"/>
       <c r="I580" s="4"/>
     </row>
-    <row r="581" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C581" s="4"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -7213,7 +7294,7 @@
       <c r="H581" s="5"/>
       <c r="I581" s="4"/>
     </row>
-    <row r="582" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C582" s="4"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -7222,7 +7303,7 @@
       <c r="H582" s="5"/>
       <c r="I582" s="4"/>
     </row>
-    <row r="583" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C583" s="4"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -7231,7 +7312,7 @@
       <c r="H583" s="5"/>
       <c r="I583" s="4"/>
     </row>
-    <row r="584" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C584" s="4"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -7240,7 +7321,7 @@
       <c r="H584" s="5"/>
       <c r="I584" s="4"/>
     </row>
-    <row r="585" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C585" s="4"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -7249,7 +7330,7 @@
       <c r="H585" s="5"/>
       <c r="I585" s="4"/>
     </row>
-    <row r="586" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C586" s="4"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -7258,7 +7339,7 @@
       <c r="H586" s="5"/>
       <c r="I586" s="4"/>
     </row>
-    <row r="587" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C587" s="4"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -7267,7 +7348,7 @@
       <c r="H587" s="5"/>
       <c r="I587" s="4"/>
     </row>
-    <row r="588" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C588" s="4"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -7276,7 +7357,7 @@
       <c r="H588" s="5"/>
       <c r="I588" s="4"/>
     </row>
-    <row r="589" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C589" s="4"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -7285,7 +7366,7 @@
       <c r="H589" s="5"/>
       <c r="I589" s="4"/>
     </row>
-    <row r="590" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C590" s="4"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -7294,7 +7375,7 @@
       <c r="H590" s="5"/>
       <c r="I590" s="4"/>
     </row>
-    <row r="591" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C591" s="4"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -7303,7 +7384,7 @@
       <c r="H591" s="5"/>
       <c r="I591" s="4"/>
     </row>
-    <row r="592" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C592" s="4"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -7312,7 +7393,7 @@
       <c r="H592" s="5"/>
       <c r="I592" s="4"/>
     </row>
-    <row r="593" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C593" s="4"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -7321,7 +7402,7 @@
       <c r="H593" s="5"/>
       <c r="I593" s="4"/>
     </row>
-    <row r="594" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C594" s="4"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -7330,7 +7411,7 @@
       <c r="H594" s="5"/>
       <c r="I594" s="4"/>
     </row>
-    <row r="595" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C595" s="4"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -7339,7 +7420,7 @@
       <c r="H595" s="5"/>
       <c r="I595" s="4"/>
     </row>
-    <row r="596" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C596" s="4"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -7348,7 +7429,7 @@
       <c r="H596" s="5"/>
       <c r="I596" s="4"/>
     </row>
-    <row r="597" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C597" s="4"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -7357,7 +7438,7 @@
       <c r="H597" s="5"/>
       <c r="I597" s="4"/>
     </row>
-    <row r="598" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C598" s="4"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -7366,7 +7447,7 @@
       <c r="H598" s="5"/>
       <c r="I598" s="4"/>
     </row>
-    <row r="599" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C599" s="4"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -7375,7 +7456,7 @@
       <c r="H599" s="5"/>
       <c r="I599" s="4"/>
     </row>
-    <row r="600" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C600" s="4"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -7384,7 +7465,7 @@
       <c r="H600" s="5"/>
       <c r="I600" s="4"/>
     </row>
-    <row r="601" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C601" s="4"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -7393,7 +7474,7 @@
       <c r="H601" s="5"/>
       <c r="I601" s="4"/>
     </row>
-    <row r="602" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C602" s="4"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -7402,7 +7483,7 @@
       <c r="H602" s="5"/>
       <c r="I602" s="4"/>
     </row>
-    <row r="603" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C603" s="4"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -7411,7 +7492,7 @@
       <c r="H603" s="5"/>
       <c r="I603" s="4"/>
     </row>
-    <row r="604" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C604" s="4"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -7420,7 +7501,7 @@
       <c r="H604" s="5"/>
       <c r="I604" s="4"/>
     </row>
-    <row r="605" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C605" s="4"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -7429,7 +7510,7 @@
       <c r="H605" s="5"/>
       <c r="I605" s="4"/>
     </row>
-    <row r="606" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C606" s="4"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -7438,7 +7519,7 @@
       <c r="H606" s="5"/>
       <c r="I606" s="4"/>
     </row>
-    <row r="607" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C607" s="4"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -7447,7 +7528,7 @@
       <c r="H607" s="5"/>
       <c r="I607" s="4"/>
     </row>
-    <row r="608" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C608" s="4"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -7456,7 +7537,7 @@
       <c r="H608" s="5"/>
       <c r="I608" s="4"/>
     </row>
-    <row r="609" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C609" s="4"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -7465,7 +7546,7 @@
       <c r="H609" s="5"/>
       <c r="I609" s="4"/>
     </row>
-    <row r="610" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C610" s="4"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -7474,7 +7555,7 @@
       <c r="H610" s="5"/>
       <c r="I610" s="4"/>
     </row>
-    <row r="611" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C611" s="4"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -7483,7 +7564,7 @@
       <c r="H611" s="5"/>
       <c r="I611" s="4"/>
     </row>
-    <row r="612" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C612" s="4"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -7492,7 +7573,7 @@
       <c r="H612" s="5"/>
       <c r="I612" s="4"/>
     </row>
-    <row r="613" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C613" s="4"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -7501,7 +7582,7 @@
       <c r="H613" s="5"/>
       <c r="I613" s="4"/>
     </row>
-    <row r="614" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C614" s="4"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -7510,7 +7591,7 @@
       <c r="H614" s="5"/>
       <c r="I614" s="4"/>
     </row>
-    <row r="615" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C615" s="4"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -7519,7 +7600,7 @@
       <c r="H615" s="5"/>
       <c r="I615" s="4"/>
     </row>
-    <row r="616" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C616" s="4"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -7528,7 +7609,7 @@
       <c r="H616" s="5"/>
       <c r="I616" s="4"/>
     </row>
-    <row r="617" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C617" s="4"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -7537,7 +7618,7 @@
       <c r="H617" s="5"/>
       <c r="I617" s="4"/>
     </row>
-    <row r="618" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C618" s="4"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -7546,7 +7627,7 @@
       <c r="H618" s="5"/>
       <c r="I618" s="4"/>
     </row>
-    <row r="619" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C619" s="4"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -7555,7 +7636,7 @@
       <c r="H619" s="5"/>
       <c r="I619" s="4"/>
     </row>
-    <row r="620" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C620" s="4"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -7564,7 +7645,7 @@
       <c r="H620" s="5"/>
       <c r="I620" s="4"/>
     </row>
-    <row r="621" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C621" s="4"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -7573,7 +7654,7 @@
       <c r="H621" s="5"/>
       <c r="I621" s="4"/>
     </row>
-    <row r="622" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C622" s="4"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -7582,7 +7663,7 @@
       <c r="H622" s="5"/>
       <c r="I622" s="4"/>
     </row>
-    <row r="623" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C623" s="4"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -7591,7 +7672,7 @@
       <c r="H623" s="5"/>
       <c r="I623" s="4"/>
     </row>
-    <row r="624" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C624" s="4"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -7600,7 +7681,7 @@
       <c r="H624" s="5"/>
       <c r="I624" s="4"/>
     </row>
-    <row r="625" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C625" s="4"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -7609,7 +7690,7 @@
       <c r="H625" s="5"/>
       <c r="I625" s="4"/>
     </row>
-    <row r="626" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C626" s="4"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -7618,7 +7699,7 @@
       <c r="H626" s="5"/>
       <c r="I626" s="4"/>
     </row>
-    <row r="627" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C627" s="4"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -7627,7 +7708,7 @@
       <c r="H627" s="5"/>
       <c r="I627" s="4"/>
     </row>
-    <row r="628" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C628" s="4"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -7636,7 +7717,7 @@
       <c r="H628" s="5"/>
       <c r="I628" s="4"/>
     </row>
-    <row r="629" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C629" s="4"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -7645,7 +7726,7 @@
       <c r="H629" s="5"/>
       <c r="I629" s="4"/>
     </row>
-    <row r="630" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C630" s="4"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -7654,7 +7735,7 @@
       <c r="H630" s="5"/>
       <c r="I630" s="4"/>
     </row>
-    <row r="631" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C631" s="4"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -7663,7 +7744,7 @@
       <c r="H631" s="5"/>
       <c r="I631" s="4"/>
     </row>
-    <row r="632" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C632" s="4"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -7672,7 +7753,7 @@
       <c r="H632" s="5"/>
       <c r="I632" s="4"/>
     </row>
-    <row r="633" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C633" s="4"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -7681,7 +7762,7 @@
       <c r="H633" s="5"/>
       <c r="I633" s="4"/>
     </row>
-    <row r="634" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C634" s="4"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -7690,7 +7771,7 @@
       <c r="H634" s="5"/>
       <c r="I634" s="4"/>
     </row>
-    <row r="635" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C635" s="4"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -7699,7 +7780,7 @@
       <c r="H635" s="5"/>
       <c r="I635" s="4"/>
     </row>
-    <row r="636" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C636" s="4"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -7708,7 +7789,7 @@
       <c r="H636" s="5"/>
       <c r="I636" s="4"/>
     </row>
-    <row r="637" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C637" s="4"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -7717,7 +7798,7 @@
       <c r="H637" s="5"/>
       <c r="I637" s="4"/>
     </row>
-    <row r="638" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C638" s="4"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -7726,7 +7807,7 @@
       <c r="H638" s="5"/>
       <c r="I638" s="4"/>
     </row>
-    <row r="639" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C639" s="4"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -7735,7 +7816,7 @@
       <c r="H639" s="5"/>
       <c r="I639" s="4"/>
     </row>
-    <row r="640" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C640" s="4"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -7744,7 +7825,7 @@
       <c r="H640" s="5"/>
       <c r="I640" s="4"/>
     </row>
-    <row r="641" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C641" s="4"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -7753,7 +7834,7 @@
       <c r="H641" s="5"/>
       <c r="I641" s="4"/>
     </row>
-    <row r="642" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C642" s="4"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -7762,7 +7843,7 @@
       <c r="H642" s="5"/>
       <c r="I642" s="4"/>
     </row>
-    <row r="643" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C643" s="4"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -7771,7 +7852,7 @@
       <c r="H643" s="5"/>
       <c r="I643" s="4"/>
     </row>
-    <row r="644" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C644" s="4"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -7780,7 +7861,7 @@
       <c r="H644" s="5"/>
       <c r="I644" s="4"/>
     </row>
-    <row r="645" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C645" s="4"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -7789,7 +7870,7 @@
       <c r="H645" s="5"/>
       <c r="I645" s="4"/>
     </row>
-    <row r="646" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C646" s="4"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -7798,7 +7879,7 @@
       <c r="H646" s="5"/>
       <c r="I646" s="4"/>
     </row>
-    <row r="647" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C647" s="4"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -7807,7 +7888,7 @@
       <c r="H647" s="5"/>
       <c r="I647" s="4"/>
     </row>
-    <row r="648" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C648" s="4"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -7816,7 +7897,7 @@
       <c r="H648" s="5"/>
       <c r="I648" s="4"/>
     </row>
-    <row r="649" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C649" s="4"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -7825,7 +7906,7 @@
       <c r="H649" s="5"/>
       <c r="I649" s="4"/>
     </row>
-    <row r="650" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C650" s="4"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -7834,7 +7915,7 @@
       <c r="H650" s="5"/>
       <c r="I650" s="4"/>
     </row>
-    <row r="651" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C651" s="4"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -7843,7 +7924,7 @@
       <c r="H651" s="5"/>
       <c r="I651" s="4"/>
     </row>
-    <row r="652" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C652" s="4"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -7852,7 +7933,7 @@
       <c r="H652" s="5"/>
       <c r="I652" s="4"/>
     </row>
-    <row r="653" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C653" s="4"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -7861,7 +7942,7 @@
       <c r="H653" s="5"/>
       <c r="I653" s="4"/>
     </row>
-    <row r="654" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C654" s="4"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -7870,7 +7951,7 @@
       <c r="H654" s="5"/>
       <c r="I654" s="4"/>
     </row>
-    <row r="655" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C655" s="4"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -7879,7 +7960,7 @@
       <c r="H655" s="5"/>
       <c r="I655" s="4"/>
     </row>
-    <row r="656" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C656" s="4"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -7888,7 +7969,7 @@
       <c r="H656" s="5"/>
       <c r="I656" s="4"/>
     </row>
-    <row r="657" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C657" s="4"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -7897,7 +7978,7 @@
       <c r="H657" s="5"/>
       <c r="I657" s="4"/>
     </row>
-    <row r="658" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C658" s="4"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -7906,7 +7987,7 @@
       <c r="H658" s="5"/>
       <c r="I658" s="4"/>
     </row>
-    <row r="659" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C659" s="4"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -7915,7 +7996,7 @@
       <c r="H659" s="5"/>
       <c r="I659" s="4"/>
     </row>
-    <row r="660" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C660" s="4"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -7924,7 +8005,7 @@
       <c r="H660" s="5"/>
       <c r="I660" s="4"/>
     </row>
-    <row r="661" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C661" s="4"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -7933,7 +8014,7 @@
       <c r="H661" s="5"/>
       <c r="I661" s="4"/>
     </row>
-    <row r="662" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C662" s="4"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -7942,7 +8023,7 @@
       <c r="H662" s="5"/>
       <c r="I662" s="4"/>
     </row>
-    <row r="663" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C663" s="4"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -7951,7 +8032,7 @@
       <c r="H663" s="5"/>
       <c r="I663" s="4"/>
     </row>
-    <row r="664" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C664" s="4"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -7960,7 +8041,7 @@
       <c r="H664" s="5"/>
       <c r="I664" s="4"/>
     </row>
-    <row r="665" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C665" s="4"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -7969,7 +8050,7 @@
       <c r="H665" s="5"/>
       <c r="I665" s="4"/>
     </row>
-    <row r="666" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C666" s="4"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -7978,7 +8059,7 @@
       <c r="H666" s="5"/>
       <c r="I666" s="4"/>
     </row>
-    <row r="667" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C667" s="4"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -7987,7 +8068,7 @@
       <c r="H667" s="5"/>
       <c r="I667" s="4"/>
     </row>
-    <row r="668" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C668" s="4"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -7996,7 +8077,7 @@
       <c r="H668" s="5"/>
       <c r="I668" s="4"/>
     </row>
-    <row r="669" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C669" s="4"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -8005,7 +8086,7 @@
       <c r="H669" s="5"/>
       <c r="I669" s="4"/>
     </row>
-    <row r="670" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C670" s="4"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -8014,7 +8095,7 @@
       <c r="H670" s="5"/>
       <c r="I670" s="4"/>
     </row>
-    <row r="671" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C671" s="4"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -8023,7 +8104,7 @@
       <c r="H671" s="5"/>
       <c r="I671" s="4"/>
     </row>
-    <row r="672" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C672" s="4"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -8032,7 +8113,7 @@
       <c r="H672" s="5"/>
       <c r="I672" s="4"/>
     </row>
-    <row r="673" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C673" s="4"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -8041,7 +8122,7 @@
       <c r="H673" s="5"/>
       <c r="I673" s="4"/>
     </row>
-    <row r="674" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C674" s="4"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -8050,7 +8131,7 @@
       <c r="H674" s="5"/>
       <c r="I674" s="4"/>
     </row>
-    <row r="675" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C675" s="4"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -8059,7 +8140,7 @@
       <c r="H675" s="5"/>
       <c r="I675" s="4"/>
     </row>
-    <row r="676" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C676" s="4"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -8068,7 +8149,7 @@
       <c r="H676" s="5"/>
       <c r="I676" s="4"/>
     </row>
-    <row r="677" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C677" s="4"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -8077,7 +8158,7 @@
       <c r="H677" s="5"/>
       <c r="I677" s="4"/>
     </row>
-    <row r="678" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C678" s="4"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -8086,7 +8167,7 @@
       <c r="H678" s="5"/>
       <c r="I678" s="4"/>
     </row>
-    <row r="679" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C679" s="4"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -8095,7 +8176,7 @@
       <c r="H679" s="5"/>
       <c r="I679" s="4"/>
     </row>
-    <row r="680" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C680" s="4"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -8104,7 +8185,7 @@
       <c r="H680" s="5"/>
       <c r="I680" s="4"/>
     </row>
-    <row r="681" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C681" s="4"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -8113,7 +8194,7 @@
       <c r="H681" s="5"/>
       <c r="I681" s="4"/>
     </row>
-    <row r="682" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C682" s="4"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -8122,7 +8203,7 @@
       <c r="H682" s="5"/>
       <c r="I682" s="4"/>
     </row>
-    <row r="683" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C683" s="4"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -8131,7 +8212,7 @@
       <c r="H683" s="5"/>
       <c r="I683" s="4"/>
     </row>
-    <row r="684" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C684" s="4"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -8140,7 +8221,7 @@
       <c r="H684" s="5"/>
       <c r="I684" s="4"/>
     </row>
-    <row r="685" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C685" s="4"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -8149,7 +8230,7 @@
       <c r="H685" s="5"/>
       <c r="I685" s="4"/>
     </row>
-    <row r="686" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C686" s="4"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -8158,7 +8239,7 @@
       <c r="H686" s="5"/>
       <c r="I686" s="4"/>
     </row>
-    <row r="687" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C687" s="4"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -8167,7 +8248,7 @@
       <c r="H687" s="5"/>
       <c r="I687" s="4"/>
     </row>
-    <row r="688" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C688" s="4"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -8176,7 +8257,7 @@
       <c r="H688" s="5"/>
       <c r="I688" s="4"/>
     </row>
-    <row r="689" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C689" s="4"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -8185,7 +8266,7 @@
       <c r="H689" s="5"/>
       <c r="I689" s="4"/>
     </row>
-    <row r="690" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C690" s="4"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -8194,7 +8275,7 @@
       <c r="H690" s="5"/>
       <c r="I690" s="4"/>
     </row>
-    <row r="691" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C691" s="4"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -8203,7 +8284,7 @@
       <c r="H691" s="5"/>
       <c r="I691" s="4"/>
     </row>
-    <row r="692" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C692" s="4"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -8212,7 +8293,7 @@
       <c r="H692" s="5"/>
       <c r="I692" s="4"/>
     </row>
-    <row r="693" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C693" s="4"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -8221,7 +8302,7 @@
       <c r="H693" s="5"/>
       <c r="I693" s="4"/>
     </row>
-    <row r="694" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C694" s="4"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -8230,7 +8311,7 @@
       <c r="H694" s="5"/>
       <c r="I694" s="4"/>
     </row>
-    <row r="695" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C695" s="4"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -8239,7 +8320,7 @@
       <c r="H695" s="5"/>
       <c r="I695" s="4"/>
     </row>
-    <row r="696" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C696" s="4"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -8248,7 +8329,7 @@
       <c r="H696" s="5"/>
       <c r="I696" s="4"/>
     </row>
-    <row r="697" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C697" s="4"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -8257,7 +8338,7 @@
       <c r="H697" s="5"/>
       <c r="I697" s="4"/>
     </row>
-    <row r="698" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C698" s="4"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -8266,7 +8347,7 @@
       <c r="H698" s="5"/>
       <c r="I698" s="4"/>
     </row>
-    <row r="699" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C699" s="4"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -8275,7 +8356,7 @@
       <c r="H699" s="5"/>
       <c r="I699" s="4"/>
     </row>
-    <row r="700" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C700" s="4"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -8284,7 +8365,7 @@
       <c r="H700" s="5"/>
       <c r="I700" s="4"/>
     </row>
-    <row r="701" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C701" s="4"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -8293,7 +8374,7 @@
       <c r="H701" s="5"/>
       <c r="I701" s="4"/>
     </row>
-    <row r="702" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C702" s="4"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -8302,7 +8383,7 @@
       <c r="H702" s="5"/>
       <c r="I702" s="4"/>
     </row>
-    <row r="703" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C703" s="4"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -8311,7 +8392,7 @@
       <c r="H703" s="5"/>
       <c r="I703" s="4"/>
     </row>
-    <row r="704" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C704" s="4"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -8320,7 +8401,7 @@
       <c r="H704" s="5"/>
       <c r="I704" s="4"/>
     </row>
-    <row r="705" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C705" s="4"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -8329,7 +8410,7 @@
       <c r="H705" s="5"/>
       <c r="I705" s="4"/>
     </row>
-    <row r="706" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C706" s="4"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -8338,7 +8419,7 @@
       <c r="H706" s="5"/>
       <c r="I706" s="4"/>
     </row>
-    <row r="707" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C707" s="4"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -8347,7 +8428,7 @@
       <c r="H707" s="5"/>
       <c r="I707" s="4"/>
     </row>
-    <row r="708" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C708" s="4"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -8356,7 +8437,7 @@
       <c r="H708" s="5"/>
       <c r="I708" s="4"/>
     </row>
-    <row r="709" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C709" s="4"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -8365,7 +8446,7 @@
       <c r="H709" s="5"/>
       <c r="I709" s="4"/>
     </row>
-    <row r="710" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C710" s="4"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -8374,7 +8455,7 @@
       <c r="H710" s="5"/>
       <c r="I710" s="4"/>
     </row>
-    <row r="711" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C711" s="4"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -8383,7 +8464,7 @@
       <c r="H711" s="5"/>
       <c r="I711" s="4"/>
     </row>
-    <row r="712" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C712" s="4"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -8392,7 +8473,7 @@
       <c r="H712" s="5"/>
       <c r="I712" s="4"/>
     </row>
-    <row r="713" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C713" s="4"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -8401,7 +8482,7 @@
       <c r="H713" s="5"/>
       <c r="I713" s="4"/>
     </row>
-    <row r="714" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C714" s="4"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -8410,7 +8491,7 @@
       <c r="H714" s="5"/>
       <c r="I714" s="4"/>
     </row>
-    <row r="715" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C715" s="4"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -8419,7 +8500,7 @@
       <c r="H715" s="5"/>
       <c r="I715" s="4"/>
     </row>
-    <row r="716" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C716" s="4"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -8428,7 +8509,7 @@
       <c r="H716" s="5"/>
       <c r="I716" s="4"/>
     </row>
-    <row r="717" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C717" s="4"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -8437,7 +8518,7 @@
       <c r="H717" s="5"/>
       <c r="I717" s="4"/>
     </row>
-    <row r="718" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C718" s="4"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -8446,7 +8527,7 @@
       <c r="H718" s="5"/>
       <c r="I718" s="4"/>
     </row>
-    <row r="719" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C719" s="4"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -8455,7 +8536,7 @@
       <c r="H719" s="5"/>
       <c r="I719" s="4"/>
     </row>
-    <row r="720" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C720" s="4"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -8464,7 +8545,7 @@
       <c r="H720" s="5"/>
       <c r="I720" s="4"/>
     </row>
-    <row r="721" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C721" s="4"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -8473,7 +8554,7 @@
       <c r="H721" s="5"/>
       <c r="I721" s="4"/>
     </row>
-    <row r="722" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C722" s="4"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -8482,7 +8563,7 @@
       <c r="H722" s="5"/>
       <c r="I722" s="4"/>
     </row>
-    <row r="723" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C723" s="4"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -8491,7 +8572,7 @@
       <c r="H723" s="5"/>
       <c r="I723" s="4"/>
     </row>
-    <row r="724" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C724" s="4"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -8500,7 +8581,7 @@
       <c r="H724" s="5"/>
       <c r="I724" s="4"/>
     </row>
-    <row r="725" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C725" s="4"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -8509,7 +8590,7 @@
       <c r="H725" s="5"/>
       <c r="I725" s="4"/>
     </row>
-    <row r="726" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C726" s="4"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -8518,7 +8599,7 @@
       <c r="H726" s="5"/>
       <c r="I726" s="4"/>
     </row>
-    <row r="727" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C727" s="4"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -8527,7 +8608,7 @@
       <c r="H727" s="5"/>
       <c r="I727" s="4"/>
     </row>
-    <row r="728" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C728" s="4"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -8536,7 +8617,7 @@
       <c r="H728" s="5"/>
       <c r="I728" s="4"/>
     </row>
-    <row r="729" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C729" s="4"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -8545,7 +8626,7 @@
       <c r="H729" s="5"/>
       <c r="I729" s="4"/>
     </row>
-    <row r="730" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C730" s="4"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -8554,7 +8635,7 @@
       <c r="H730" s="5"/>
       <c r="I730" s="4"/>
     </row>
-    <row r="731" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C731" s="4"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -8563,7 +8644,7 @@
       <c r="H731" s="5"/>
       <c r="I731" s="4"/>
     </row>
-    <row r="732" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C732" s="4"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -8572,7 +8653,7 @@
       <c r="H732" s="5"/>
       <c r="I732" s="4"/>
     </row>
-    <row r="733" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C733" s="4"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -8581,7 +8662,7 @@
       <c r="H733" s="5"/>
       <c r="I733" s="4"/>
     </row>
-    <row r="734" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C734" s="4"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -8590,7 +8671,7 @@
       <c r="H734" s="5"/>
       <c r="I734" s="4"/>
     </row>
-    <row r="735" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C735" s="4"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -8599,7 +8680,7 @@
       <c r="H735" s="5"/>
       <c r="I735" s="4"/>
     </row>
-    <row r="736" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C736" s="4"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -8608,7 +8689,7 @@
       <c r="H736" s="5"/>
       <c r="I736" s="4"/>
     </row>
-    <row r="737" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C737" s="4"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -8617,7 +8698,7 @@
       <c r="H737" s="5"/>
       <c r="I737" s="4"/>
     </row>
-    <row r="738" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C738" s="4"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -8626,7 +8707,7 @@
       <c r="H738" s="5"/>
       <c r="I738" s="4"/>
     </row>
-    <row r="739" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C739" s="4"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -8635,7 +8716,7 @@
       <c r="H739" s="5"/>
       <c r="I739" s="4"/>
     </row>
-    <row r="740" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C740" s="4"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -8644,7 +8725,7 @@
       <c r="H740" s="5"/>
       <c r="I740" s="4"/>
     </row>
-    <row r="741" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C741" s="4"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -8653,7 +8734,7 @@
       <c r="H741" s="5"/>
       <c r="I741" s="4"/>
     </row>
-    <row r="742" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C742" s="4"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -8662,7 +8743,7 @@
       <c r="H742" s="5"/>
       <c r="I742" s="4"/>
     </row>
-    <row r="743" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C743" s="4"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -8671,7 +8752,7 @@
       <c r="H743" s="5"/>
       <c r="I743" s="4"/>
     </row>
-    <row r="744" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C744" s="4"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -8680,7 +8761,7 @@
       <c r="H744" s="5"/>
       <c r="I744" s="4"/>
     </row>
-    <row r="745" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C745" s="4"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -8689,7 +8770,7 @@
       <c r="H745" s="5"/>
       <c r="I745" s="4"/>
     </row>
-    <row r="746" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C746" s="4"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -8698,7 +8779,7 @@
       <c r="H746" s="5"/>
       <c r="I746" s="4"/>
     </row>
-    <row r="747" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C747" s="4"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -8707,7 +8788,7 @@
       <c r="H747" s="5"/>
       <c r="I747" s="4"/>
     </row>
-    <row r="748" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C748" s="4"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -8716,7 +8797,7 @@
       <c r="H748" s="5"/>
       <c r="I748" s="4"/>
     </row>
-    <row r="749" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C749" s="4"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -8725,7 +8806,7 @@
       <c r="H749" s="5"/>
       <c r="I749" s="4"/>
     </row>
-    <row r="750" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C750" s="4"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -8734,7 +8815,7 @@
       <c r="H750" s="5"/>
       <c r="I750" s="4"/>
     </row>
-    <row r="751" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C751" s="4"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -8743,7 +8824,7 @@
       <c r="H751" s="5"/>
       <c r="I751" s="4"/>
     </row>
-    <row r="752" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C752" s="4"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -8752,7 +8833,7 @@
       <c r="H752" s="5"/>
       <c r="I752" s="4"/>
     </row>
-    <row r="753" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C753" s="4"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -8761,7 +8842,7 @@
       <c r="H753" s="5"/>
       <c r="I753" s="4"/>
     </row>
-    <row r="754" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C754" s="4"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -8770,7 +8851,7 @@
       <c r="H754" s="5"/>
       <c r="I754" s="4"/>
     </row>
-    <row r="755" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C755" s="4"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -8779,7 +8860,7 @@
       <c r="H755" s="5"/>
       <c r="I755" s="4"/>
     </row>
-    <row r="756" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C756" s="4"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -8788,7 +8869,7 @@
       <c r="H756" s="5"/>
       <c r="I756" s="4"/>
     </row>
-    <row r="757" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C757" s="4"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -8797,7 +8878,7 @@
       <c r="H757" s="5"/>
       <c r="I757" s="4"/>
     </row>
-    <row r="758" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C758" s="4"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -8806,7 +8887,7 @@
       <c r="H758" s="5"/>
       <c r="I758" s="4"/>
     </row>
-    <row r="759" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C759" s="4"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -8815,7 +8896,7 @@
       <c r="H759" s="5"/>
       <c r="I759" s="4"/>
     </row>
-    <row r="760" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C760" s="4"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -8824,7 +8905,7 @@
       <c r="H760" s="5"/>
       <c r="I760" s="4"/>
     </row>
-    <row r="761" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C761" s="4"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -8833,7 +8914,7 @@
       <c r="H761" s="5"/>
       <c r="I761" s="4"/>
     </row>
-    <row r="762" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C762" s="4"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -8842,7 +8923,7 @@
       <c r="H762" s="5"/>
       <c r="I762" s="4"/>
     </row>
-    <row r="763" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C763" s="4"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -8851,7 +8932,7 @@
       <c r="H763" s="5"/>
       <c r="I763" s="4"/>
     </row>
-    <row r="764" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C764" s="4"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -8860,7 +8941,7 @@
       <c r="H764" s="5"/>
       <c r="I764" s="4"/>
     </row>
-    <row r="765" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C765" s="4"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -8869,7 +8950,7 @@
       <c r="H765" s="5"/>
       <c r="I765" s="4"/>
     </row>
-    <row r="766" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C766" s="4"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -8878,7 +8959,7 @@
       <c r="H766" s="5"/>
       <c r="I766" s="4"/>
     </row>
-    <row r="767" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C767" s="4"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -8887,7 +8968,7 @@
       <c r="H767" s="5"/>
       <c r="I767" s="4"/>
     </row>
-    <row r="768" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C768" s="4"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -8896,7 +8977,7 @@
       <c r="H768" s="5"/>
       <c r="I768" s="4"/>
     </row>
-    <row r="769" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C769" s="4"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -8905,7 +8986,7 @@
       <c r="H769" s="5"/>
       <c r="I769" s="4"/>
     </row>
-    <row r="770" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C770" s="4"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -8914,7 +8995,7 @@
       <c r="H770" s="5"/>
       <c r="I770" s="4"/>
     </row>
-    <row r="771" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C771" s="4"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -8923,7 +9004,7 @@
       <c r="H771" s="5"/>
       <c r="I771" s="4"/>
     </row>
-    <row r="772" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C772" s="4"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -8932,7 +9013,7 @@
       <c r="H772" s="5"/>
       <c r="I772" s="4"/>
     </row>
-    <row r="773" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C773" s="4"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -8941,7 +9022,7 @@
       <c r="H773" s="5"/>
       <c r="I773" s="4"/>
     </row>
-    <row r="774" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C774" s="4"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -8950,7 +9031,7 @@
       <c r="H774" s="5"/>
       <c r="I774" s="4"/>
     </row>
-    <row r="775" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C775" s="4"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -8959,7 +9040,7 @@
       <c r="H775" s="5"/>
       <c r="I775" s="4"/>
     </row>
-    <row r="776" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C776" s="4"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -8968,7 +9049,7 @@
       <c r="H776" s="5"/>
       <c r="I776" s="4"/>
     </row>
-    <row r="777" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C777" s="4"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -8977,7 +9058,7 @@
       <c r="H777" s="5"/>
       <c r="I777" s="4"/>
     </row>
-    <row r="778" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C778" s="4"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -8986,7 +9067,7 @@
       <c r="H778" s="5"/>
       <c r="I778" s="4"/>
     </row>
-    <row r="779" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C779" s="4"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -8995,7 +9076,7 @@
       <c r="H779" s="5"/>
       <c r="I779" s="4"/>
     </row>
-    <row r="780" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C780" s="4"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -9004,7 +9085,7 @@
       <c r="H780" s="5"/>
       <c r="I780" s="4"/>
     </row>
-    <row r="781" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C781" s="4"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -9013,7 +9094,7 @@
       <c r="H781" s="5"/>
       <c r="I781" s="4"/>
     </row>
-    <row r="782" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C782" s="4"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -9022,7 +9103,7 @@
       <c r="H782" s="5"/>
       <c r="I782" s="4"/>
     </row>
-    <row r="783" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C783" s="4"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -9031,7 +9112,7 @@
       <c r="H783" s="5"/>
       <c r="I783" s="4"/>
     </row>
-    <row r="784" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C784" s="4"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -9040,7 +9121,7 @@
       <c r="H784" s="5"/>
       <c r="I784" s="4"/>
     </row>
-    <row r="785" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C785" s="4"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -9049,7 +9130,7 @@
       <c r="H785" s="5"/>
       <c r="I785" s="4"/>
     </row>
-    <row r="786" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C786" s="4"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -9058,7 +9139,7 @@
       <c r="H786" s="5"/>
       <c r="I786" s="4"/>
     </row>
-    <row r="787" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C787" s="4"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -9067,7 +9148,7 @@
       <c r="H787" s="5"/>
       <c r="I787" s="4"/>
     </row>
-    <row r="788" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C788" s="4"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -9076,7 +9157,7 @@
       <c r="H788" s="5"/>
       <c r="I788" s="4"/>
     </row>
-    <row r="789" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C789" s="4"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -9085,7 +9166,7 @@
       <c r="H789" s="5"/>
       <c r="I789" s="4"/>
     </row>
-    <row r="790" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C790" s="4"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -9094,7 +9175,7 @@
       <c r="H790" s="5"/>
       <c r="I790" s="4"/>
     </row>
-    <row r="791" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C791" s="4"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -9103,7 +9184,7 @@
       <c r="H791" s="5"/>
       <c r="I791" s="4"/>
     </row>
-    <row r="792" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C792" s="4"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -9112,7 +9193,7 @@
       <c r="H792" s="5"/>
       <c r="I792" s="4"/>
     </row>
-    <row r="793" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C793" s="4"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -9121,7 +9202,7 @@
       <c r="H793" s="5"/>
       <c r="I793" s="4"/>
     </row>
-    <row r="794" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C794" s="4"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -9130,7 +9211,7 @@
       <c r="H794" s="5"/>
       <c r="I794" s="4"/>
     </row>
-    <row r="795" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C795" s="4"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -9139,7 +9220,7 @@
       <c r="H795" s="5"/>
       <c r="I795" s="4"/>
     </row>
-    <row r="796" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C796" s="4"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -9148,7 +9229,7 @@
       <c r="H796" s="5"/>
       <c r="I796" s="4"/>
     </row>
-    <row r="797" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C797" s="4"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -9157,7 +9238,7 @@
       <c r="H797" s="5"/>
       <c r="I797" s="4"/>
     </row>
-    <row r="798" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C798" s="4"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -9166,7 +9247,7 @@
       <c r="H798" s="5"/>
       <c r="I798" s="4"/>
     </row>
-    <row r="799" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C799" s="4"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -9175,7 +9256,7 @@
       <c r="H799" s="5"/>
       <c r="I799" s="4"/>
     </row>
-    <row r="800" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C800" s="4"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -9184,7 +9265,7 @@
       <c r="H800" s="5"/>
       <c r="I800" s="4"/>
     </row>
-    <row r="801" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C801" s="4"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -9193,7 +9274,7 @@
       <c r="H801" s="5"/>
       <c r="I801" s="4"/>
     </row>
-    <row r="802" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C802" s="4"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -9202,7 +9283,7 @@
       <c r="H802" s="5"/>
       <c r="I802" s="4"/>
     </row>
-    <row r="803" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C803" s="4"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -9211,7 +9292,7 @@
       <c r="H803" s="5"/>
       <c r="I803" s="4"/>
     </row>
-    <row r="804" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C804" s="4"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -9220,7 +9301,7 @@
       <c r="H804" s="5"/>
       <c r="I804" s="4"/>
     </row>
-    <row r="805" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C805" s="4"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -9229,7 +9310,7 @@
       <c r="H805" s="5"/>
       <c r="I805" s="4"/>
     </row>
-    <row r="806" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C806" s="4"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -9238,7 +9319,7 @@
       <c r="H806" s="5"/>
       <c r="I806" s="4"/>
     </row>
-    <row r="807" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C807" s="4"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -9247,7 +9328,7 @@
       <c r="H807" s="5"/>
       <c r="I807" s="4"/>
     </row>
-    <row r="808" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C808" s="4"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -9256,7 +9337,7 @@
       <c r="H808" s="5"/>
       <c r="I808" s="4"/>
     </row>
-    <row r="809" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C809" s="4"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -9265,7 +9346,7 @@
       <c r="H809" s="5"/>
       <c r="I809" s="4"/>
     </row>
-    <row r="810" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C810" s="4"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -9274,7 +9355,7 @@
       <c r="H810" s="5"/>
       <c r="I810" s="4"/>
     </row>
-    <row r="811" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C811" s="4"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -9283,7 +9364,7 @@
       <c r="H811" s="5"/>
       <c r="I811" s="4"/>
     </row>
-    <row r="812" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C812" s="4"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -9292,7 +9373,7 @@
       <c r="H812" s="5"/>
       <c r="I812" s="4"/>
     </row>
-    <row r="813" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C813" s="4"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -9301,7 +9382,7 @@
       <c r="H813" s="5"/>
       <c r="I813" s="4"/>
     </row>
-    <row r="814" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C814" s="4"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -9310,7 +9391,7 @@
       <c r="H814" s="5"/>
       <c r="I814" s="4"/>
     </row>
-    <row r="815" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C815" s="4"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -9319,7 +9400,7 @@
       <c r="H815" s="5"/>
       <c r="I815" s="4"/>
     </row>
-    <row r="816" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C816" s="4"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -9328,7 +9409,7 @@
       <c r="H816" s="5"/>
       <c r="I816" s="4"/>
     </row>
-    <row r="817" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C817" s="4"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -9337,7 +9418,7 @@
       <c r="H817" s="5"/>
       <c r="I817" s="4"/>
     </row>
-    <row r="818" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C818" s="4"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -9346,7 +9427,7 @@
       <c r="H818" s="5"/>
       <c r="I818" s="4"/>
     </row>
-    <row r="819" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C819" s="4"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -9355,7 +9436,7 @@
       <c r="H819" s="5"/>
       <c r="I819" s="4"/>
     </row>
-    <row r="820" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C820" s="4"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -9364,7 +9445,7 @@
       <c r="H820" s="5"/>
       <c r="I820" s="4"/>
     </row>
-    <row r="821" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C821" s="4"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -9373,7 +9454,7 @@
       <c r="H821" s="5"/>
       <c r="I821" s="4"/>
     </row>
-    <row r="822" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C822" s="4"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -9382,7 +9463,7 @@
       <c r="H822" s="5"/>
       <c r="I822" s="4"/>
     </row>
-    <row r="823" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C823" s="4"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -9391,7 +9472,7 @@
       <c r="H823" s="5"/>
       <c r="I823" s="4"/>
     </row>
-    <row r="824" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C824" s="4"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -9400,7 +9481,7 @@
       <c r="H824" s="5"/>
       <c r="I824" s="4"/>
     </row>
-    <row r="825" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C825" s="4"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -9409,7 +9490,7 @@
       <c r="H825" s="5"/>
       <c r="I825" s="4"/>
     </row>
-    <row r="826" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C826" s="4"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -9418,7 +9499,7 @@
       <c r="H826" s="5"/>
       <c r="I826" s="4"/>
     </row>
-    <row r="827" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C827" s="4"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -9427,7 +9508,7 @@
       <c r="H827" s="5"/>
       <c r="I827" s="4"/>
     </row>
-    <row r="828" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C828" s="4"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -9436,7 +9517,7 @@
       <c r="H828" s="5"/>
       <c r="I828" s="4"/>
     </row>
-    <row r="829" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C829" s="4"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -9445,7 +9526,7 @@
       <c r="H829" s="5"/>
       <c r="I829" s="4"/>
     </row>
-    <row r="830" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C830" s="4"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -9454,7 +9535,7 @@
       <c r="H830" s="5"/>
       <c r="I830" s="4"/>
     </row>
-    <row r="831" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C831" s="4"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -9463,7 +9544,7 @@
       <c r="H831" s="5"/>
       <c r="I831" s="4"/>
     </row>
-    <row r="832" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C832" s="4"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -9472,7 +9553,7 @@
       <c r="H832" s="5"/>
       <c r="I832" s="4"/>
     </row>
-    <row r="833" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C833" s="4"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -9481,7 +9562,7 @@
       <c r="H833" s="5"/>
       <c r="I833" s="4"/>
     </row>
-    <row r="834" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C834" s="4"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -9490,7 +9571,7 @@
       <c r="H834" s="5"/>
       <c r="I834" s="4"/>
     </row>
-    <row r="835" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C835" s="4"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -9499,7 +9580,7 @@
       <c r="H835" s="5"/>
       <c r="I835" s="4"/>
     </row>
-    <row r="836" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C836" s="4"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -9508,7 +9589,7 @@
       <c r="H836" s="5"/>
       <c r="I836" s="4"/>
     </row>
-    <row r="837" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C837" s="4"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -9517,7 +9598,7 @@
       <c r="H837" s="5"/>
       <c r="I837" s="4"/>
     </row>
-    <row r="838" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C838" s="4"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -9526,7 +9607,7 @@
       <c r="H838" s="5"/>
       <c r="I838" s="4"/>
     </row>
-    <row r="839" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C839" s="4"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -9535,7 +9616,7 @@
       <c r="H839" s="5"/>
       <c r="I839" s="4"/>
     </row>
-    <row r="840" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C840" s="4"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -9544,7 +9625,7 @@
       <c r="H840" s="5"/>
       <c r="I840" s="4"/>
     </row>
-    <row r="841" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C841" s="4"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -9553,7 +9634,7 @@
       <c r="H841" s="5"/>
       <c r="I841" s="4"/>
     </row>
-    <row r="842" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C842" s="4"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -9562,7 +9643,7 @@
       <c r="H842" s="5"/>
       <c r="I842" s="4"/>
     </row>
-    <row r="843" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C843" s="4"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -9571,7 +9652,7 @@
       <c r="H843" s="5"/>
       <c r="I843" s="4"/>
     </row>
-    <row r="844" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C844" s="4"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -9580,7 +9661,7 @@
       <c r="H844" s="5"/>
       <c r="I844" s="4"/>
     </row>
-    <row r="845" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C845" s="4"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -9589,7 +9670,7 @@
       <c r="H845" s="5"/>
       <c r="I845" s="4"/>
     </row>
-    <row r="846" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C846" s="4"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -9598,7 +9679,7 @@
       <c r="H846" s="5"/>
       <c r="I846" s="4"/>
     </row>
-    <row r="847" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C847" s="4"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -9607,7 +9688,7 @@
       <c r="H847" s="5"/>
       <c r="I847" s="4"/>
     </row>
-    <row r="848" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C848" s="4"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -9616,7 +9697,7 @@
       <c r="H848" s="5"/>
       <c r="I848" s="4"/>
     </row>
-    <row r="849" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C849" s="4"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -9625,7 +9706,7 @@
       <c r="H849" s="5"/>
       <c r="I849" s="4"/>
     </row>
-    <row r="850" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C850" s="4"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -9634,7 +9715,7 @@
       <c r="H850" s="5"/>
       <c r="I850" s="4"/>
     </row>
-    <row r="851" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C851" s="4"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -9643,7 +9724,7 @@
       <c r="H851" s="5"/>
       <c r="I851" s="4"/>
     </row>
-    <row r="852" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C852" s="4"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -9652,7 +9733,7 @@
       <c r="H852" s="5"/>
       <c r="I852" s="4"/>
     </row>
-    <row r="853" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C853" s="4"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -9661,7 +9742,7 @@
       <c r="H853" s="5"/>
       <c r="I853" s="4"/>
     </row>
-    <row r="854" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C854" s="4"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -9670,7 +9751,7 @@
       <c r="H854" s="5"/>
       <c r="I854" s="4"/>
     </row>
-    <row r="855" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C855" s="4"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -9679,7 +9760,7 @@
       <c r="H855" s="5"/>
       <c r="I855" s="4"/>
     </row>
-    <row r="856" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C856" s="4"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -9688,7 +9769,7 @@
       <c r="H856" s="5"/>
       <c r="I856" s="4"/>
     </row>
-    <row r="857" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C857" s="4"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -9697,7 +9778,7 @@
       <c r="H857" s="5"/>
       <c r="I857" s="4"/>
     </row>
-    <row r="858" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C858" s="4"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -9706,7 +9787,7 @@
       <c r="H858" s="5"/>
       <c r="I858" s="4"/>
     </row>
-    <row r="859" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C859" s="4"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -9715,7 +9796,7 @@
       <c r="H859" s="5"/>
       <c r="I859" s="4"/>
     </row>
-    <row r="860" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C860" s="4"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -9724,7 +9805,7 @@
       <c r="H860" s="5"/>
       <c r="I860" s="4"/>
     </row>
-    <row r="861" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C861" s="4"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -9733,7 +9814,7 @@
       <c r="H861" s="5"/>
       <c r="I861" s="4"/>
     </row>
-    <row r="862" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C862" s="4"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -9742,7 +9823,7 @@
       <c r="H862" s="5"/>
       <c r="I862" s="4"/>
     </row>
-    <row r="863" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C863" s="4"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -9751,7 +9832,7 @@
       <c r="H863" s="5"/>
       <c r="I863" s="4"/>
     </row>
-    <row r="864" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C864" s="4"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -9760,7 +9841,7 @@
       <c r="H864" s="5"/>
       <c r="I864" s="4"/>
     </row>
-    <row r="865" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C865" s="4"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -9769,7 +9850,7 @@
       <c r="H865" s="5"/>
       <c r="I865" s="4"/>
     </row>
-    <row r="866" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C866" s="4"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -9778,7 +9859,7 @@
       <c r="H866" s="5"/>
       <c r="I866" s="4"/>
     </row>
-    <row r="867" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C867" s="4"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -9787,7 +9868,7 @@
       <c r="H867" s="5"/>
       <c r="I867" s="4"/>
     </row>
-    <row r="868" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C868" s="4"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -9796,7 +9877,7 @@
       <c r="H868" s="5"/>
       <c r="I868" s="4"/>
     </row>
-    <row r="869" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C869" s="4"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -9805,7 +9886,7 @@
       <c r="H869" s="5"/>
       <c r="I869" s="4"/>
     </row>
-    <row r="870" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C870" s="4"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -9814,7 +9895,7 @@
       <c r="H870" s="5"/>
       <c r="I870" s="4"/>
     </row>
-    <row r="871" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C871" s="4"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -9823,7 +9904,7 @@
       <c r="H871" s="5"/>
       <c r="I871" s="4"/>
     </row>
-    <row r="872" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C872" s="4"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -9832,7 +9913,7 @@
       <c r="H872" s="5"/>
       <c r="I872" s="4"/>
     </row>
-    <row r="873" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C873" s="4"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -9841,7 +9922,7 @@
       <c r="H873" s="5"/>
       <c r="I873" s="4"/>
     </row>
-    <row r="874" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C874" s="4"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -9850,7 +9931,7 @@
       <c r="H874" s="5"/>
       <c r="I874" s="4"/>
     </row>
-    <row r="875" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C875" s="4"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -9859,7 +9940,7 @@
       <c r="H875" s="5"/>
       <c r="I875" s="4"/>
     </row>
-    <row r="876" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C876" s="4"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -9868,7 +9949,7 @@
       <c r="H876" s="5"/>
       <c r="I876" s="4"/>
     </row>
-    <row r="877" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C877" s="4"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -9877,7 +9958,7 @@
       <c r="H877" s="5"/>
       <c r="I877" s="4"/>
     </row>
-    <row r="878" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C878" s="4"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -9886,7 +9967,7 @@
       <c r="H878" s="5"/>
       <c r="I878" s="4"/>
     </row>
-    <row r="879" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C879" s="4"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -9895,7 +9976,7 @@
       <c r="H879" s="5"/>
       <c r="I879" s="4"/>
     </row>
-    <row r="880" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C880" s="4"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -9904,7 +9985,7 @@
       <c r="H880" s="5"/>
       <c r="I880" s="4"/>
     </row>
-    <row r="881" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C881" s="4"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -9913,7 +9994,7 @@
       <c r="H881" s="5"/>
       <c r="I881" s="4"/>
     </row>
-    <row r="882" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C882" s="4"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -9922,7 +10003,7 @@
       <c r="H882" s="5"/>
       <c r="I882" s="4"/>
     </row>
-    <row r="883" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C883" s="4"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -9931,7 +10012,7 @@
       <c r="H883" s="5"/>
       <c r="I883" s="4"/>
     </row>
-    <row r="884" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C884" s="4"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -9940,7 +10021,7 @@
       <c r="H884" s="5"/>
       <c r="I884" s="4"/>
     </row>
-    <row r="885" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C885" s="4"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -9949,7 +10030,7 @@
       <c r="H885" s="5"/>
       <c r="I885" s="4"/>
     </row>
-    <row r="886" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C886" s="4"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -9958,7 +10039,7 @@
       <c r="H886" s="5"/>
       <c r="I886" s="4"/>
     </row>
-    <row r="887" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C887" s="4"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -9967,7 +10048,7 @@
       <c r="H887" s="5"/>
       <c r="I887" s="4"/>
     </row>
-    <row r="888" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C888" s="4"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -9976,7 +10057,7 @@
       <c r="H888" s="5"/>
       <c r="I888" s="4"/>
     </row>
-    <row r="889" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C889" s="4"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -9985,7 +10066,7 @@
       <c r="H889" s="5"/>
       <c r="I889" s="4"/>
     </row>
-    <row r="890" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C890" s="4"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -9994,7 +10075,7 @@
       <c r="H890" s="5"/>
       <c r="I890" s="4"/>
     </row>
-    <row r="891" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C891" s="4"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -10003,7 +10084,7 @@
       <c r="H891" s="5"/>
       <c r="I891" s="4"/>
     </row>
-    <row r="892" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C892" s="4"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -10012,7 +10093,7 @@
       <c r="H892" s="5"/>
       <c r="I892" s="4"/>
     </row>
-    <row r="893" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C893" s="4"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -10021,7 +10102,7 @@
       <c r="H893" s="5"/>
       <c r="I893" s="4"/>
     </row>
-    <row r="894" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C894" s="4"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -10030,7 +10111,7 @@
       <c r="H894" s="5"/>
       <c r="I894" s="4"/>
     </row>
-    <row r="895" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C895" s="4"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -10039,7 +10120,7 @@
       <c r="H895" s="5"/>
       <c r="I895" s="4"/>
     </row>
-    <row r="896" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C896" s="4"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -10048,7 +10129,7 @@
       <c r="H896" s="5"/>
       <c r="I896" s="4"/>
     </row>
-    <row r="897" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C897" s="4"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -10057,7 +10138,7 @@
       <c r="H897" s="5"/>
       <c r="I897" s="4"/>
     </row>
-    <row r="898" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C898" s="4"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -10066,7 +10147,7 @@
       <c r="H898" s="5"/>
       <c r="I898" s="4"/>
     </row>
-    <row r="899" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C899" s="4"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -10075,7 +10156,7 @@
       <c r="H899" s="5"/>
       <c r="I899" s="4"/>
     </row>
-    <row r="900" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C900" s="4"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -10084,7 +10165,7 @@
       <c r="H900" s="5"/>
       <c r="I900" s="4"/>
     </row>
-    <row r="901" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C901" s="4"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -10093,7 +10174,7 @@
       <c r="H901" s="5"/>
       <c r="I901" s="4"/>
     </row>
-    <row r="902" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C902" s="4"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -10102,7 +10183,7 @@
       <c r="H902" s="5"/>
       <c r="I902" s="4"/>
     </row>
-    <row r="903" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C903" s="4"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -10111,7 +10192,7 @@
       <c r="H903" s="5"/>
       <c r="I903" s="4"/>
     </row>
-    <row r="904" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C904" s="4"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -10120,7 +10201,7 @@
       <c r="H904" s="5"/>
       <c r="I904" s="4"/>
     </row>
-    <row r="905" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C905" s="4"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -10129,62 +10210,17 @@
       <c r="H905" s="5"/>
       <c r="I905" s="4"/>
     </row>
-    <row r="906" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C906" s="4"/>
+    <row r="906" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
       <c r="F906" s="5"/>
       <c r="G906" s="5"/>
-      <c r="H906" s="5"/>
-      <c r="I906" s="4"/>
-    </row>
-    <row r="907" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C907" s="4"/>
+    </row>
+    <row r="907" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
       <c r="F907" s="5"/>
       <c r="G907" s="5"/>
-      <c r="H907" s="5"/>
-      <c r="I907" s="4"/>
-    </row>
-    <row r="908" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C908" s="4"/>
-      <c r="D908" s="5"/>
-      <c r="E908" s="5"/>
-      <c r="F908" s="5"/>
-      <c r="G908" s="5"/>
-      <c r="H908" s="5"/>
-      <c r="I908" s="4"/>
-    </row>
-    <row r="909" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C909" s="4"/>
-      <c r="D909" s="5"/>
-      <c r="E909" s="5"/>
-      <c r="F909" s="5"/>
-      <c r="G909" s="5"/>
-      <c r="H909" s="5"/>
-      <c r="I909" s="4"/>
-    </row>
-    <row r="910" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C910" s="4"/>
-      <c r="D910" s="5"/>
-      <c r="E910" s="5"/>
-      <c r="F910" s="5"/>
-      <c r="G910" s="5"/>
-      <c r="H910" s="5"/>
-      <c r="I910" s="4"/>
-    </row>
-    <row r="911" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D911" s="5"/>
-      <c r="E911" s="5"/>
-      <c r="F911" s="5"/>
-      <c r="G911" s="5"/>
-    </row>
-    <row r="912" spans="3:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D912" s="5"/>
-      <c r="E912" s="5"/>
-      <c r="F912" s="5"/>
-      <c r="G912" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
